--- a/template/area_counts_templates.xlsx
+++ b/template/area_counts_templates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neddy3-my.sharepoint.com/personal/55529_office365online_co/Documents/Work/iseek/1-VPO/src/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{822A8590-0F41-F542-B41D-22266B978254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D125BA6-B2F1-4395-BE85-7EC48B4094FB}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{822A8590-0F41-F542-B41D-22266B978254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{356869EA-63A5-4A4D-B0C6-B13F6FFD5116}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2632,7 +2632,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2650,11 +2650,6 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial Cyr"/>
       <charset val="204"/>
     </font>
     <font>
@@ -2749,12 +2744,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2763,23 +2758,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2788,16 +2783,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2808,7 +2794,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2817,14 +2803,11 @@
     <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3116,15 +3099,15 @@
   </sheetPr>
   <dimension ref="A1:D187"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A166" zoomScale="50" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="G187" sqref="G187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.28515625" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3135,7 +3118,7 @@
       <c r="B1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="19" t="s">
         <v>69</v>
       </c>
       <c r="D1" s="10" t="s">
@@ -3149,7 +3132,7 @@
       <c r="B2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="20">
         <v>1</v>
       </c>
       <c r="D2" s="12" t="str">
@@ -3164,7 +3147,7 @@
       <c r="B3" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="20">
         <v>1</v>
       </c>
       <c r="D3" s="12" t="str">
@@ -3179,7 +3162,7 @@
       <c r="B4" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="20">
         <v>1</v>
       </c>
       <c r="D4" s="12" t="str">
@@ -3194,7 +3177,7 @@
       <c r="B5" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="20">
         <v>1</v>
       </c>
       <c r="D5" s="12" t="str">
@@ -3209,7 +3192,7 @@
       <c r="B6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="20">
         <v>1</v>
       </c>
       <c r="D6" s="12" t="str">
@@ -3224,7 +3207,7 @@
       <c r="B7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="20">
         <v>2</v>
       </c>
       <c r="D7" s="12" t="str">
@@ -3239,7 +3222,7 @@
       <c r="B8" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="20">
         <v>2</v>
       </c>
       <c r="D8" s="12" t="str">
@@ -3254,7 +3237,7 @@
       <c r="B9" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="20">
         <v>2</v>
       </c>
       <c r="D9" s="12" t="str">
@@ -3269,7 +3252,7 @@
       <c r="B10" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="20">
         <v>3</v>
       </c>
       <c r="D10" s="12" t="str">
@@ -3284,7 +3267,7 @@
       <c r="B11" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="20">
         <v>3</v>
       </c>
       <c r="D11" s="12" t="str">
@@ -3299,7 +3282,7 @@
       <c r="B12" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="20">
         <v>3</v>
       </c>
       <c r="D12" s="12" t="str">
@@ -3314,7 +3297,7 @@
       <c r="B13" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="20">
         <v>4</v>
       </c>
       <c r="D13" s="12" t="str">
@@ -3329,7 +3312,7 @@
       <c r="B14" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="20">
         <v>4</v>
       </c>
       <c r="D14" s="12" t="str">
@@ -3344,7 +3327,7 @@
       <c r="B15" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="20">
         <v>5</v>
       </c>
       <c r="D15" s="12" t="str">
@@ -3359,7 +3342,7 @@
       <c r="B16" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="20">
         <v>5</v>
       </c>
       <c r="D16" s="12" t="str">
@@ -3374,7 +3357,7 @@
       <c r="B17" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="20">
         <v>5</v>
       </c>
       <c r="D17" s="12" t="str">
@@ -3389,7 +3372,7 @@
       <c r="B18" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="20">
         <v>5</v>
       </c>
       <c r="D18" s="12" t="str">
@@ -3404,7 +3387,7 @@
       <c r="B19" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="20">
         <v>5</v>
       </c>
       <c r="D19" s="12" t="str">
@@ -3419,7 +3402,7 @@
       <c r="B20" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="20">
         <v>5</v>
       </c>
       <c r="D20" s="12" t="str">
@@ -3434,7 +3417,7 @@
       <c r="B21" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="20">
         <v>6</v>
       </c>
       <c r="D21" s="12" t="str">
@@ -3449,7 +3432,7 @@
       <c r="B22" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="20">
         <v>6</v>
       </c>
       <c r="D22" s="12" t="str">
@@ -3464,7 +3447,7 @@
       <c r="B23" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="20">
         <v>7</v>
       </c>
       <c r="D23" s="12" t="str">
@@ -3479,7 +3462,7 @@
       <c r="B24" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="20">
         <v>7</v>
       </c>
       <c r="D24" s="12" t="str">
@@ -3494,7 +3477,7 @@
       <c r="B25" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="20">
         <v>7</v>
       </c>
       <c r="D25" s="12" t="str">
@@ -3509,7 +3492,7 @@
       <c r="B26" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="20">
         <v>7</v>
       </c>
       <c r="D26" s="12" t="str">
@@ -3524,7 +3507,7 @@
       <c r="B27" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="20">
         <v>8</v>
       </c>
       <c r="D27" s="12" t="str">
@@ -3539,7 +3522,7 @@
       <c r="B28" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="20">
         <v>9</v>
       </c>
       <c r="D28" s="12" t="str">
@@ -3554,7 +3537,7 @@
       <c r="B29" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="20">
         <v>9</v>
       </c>
       <c r="D29" s="12" t="str">
@@ -3569,7 +3552,7 @@
       <c r="B30" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="20">
         <v>9</v>
       </c>
       <c r="D30" s="12" t="str">
@@ -3584,7 +3567,7 @@
       <c r="B31" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="20">
         <v>9</v>
       </c>
       <c r="D31" s="12" t="str">
@@ -3599,7 +3582,7 @@
       <c r="B32" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="23">
+      <c r="C32" s="20">
         <v>10</v>
       </c>
       <c r="D32" s="12" t="str">
@@ -3614,7 +3597,7 @@
       <c r="B33" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="23">
+      <c r="C33" s="20">
         <v>11</v>
       </c>
       <c r="D33" s="12" t="str">
@@ -3629,7 +3612,7 @@
       <c r="B34" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="23">
+      <c r="C34" s="20">
         <v>11</v>
       </c>
       <c r="D34" s="12" t="str">
@@ -3644,7 +3627,7 @@
       <c r="B35" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="23">
+      <c r="C35" s="20">
         <v>11</v>
       </c>
       <c r="D35" s="12" t="str">
@@ -3659,7 +3642,7 @@
       <c r="B36" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="23">
+      <c r="C36" s="20">
         <v>11</v>
       </c>
       <c r="D36" s="12" t="str">
@@ -3674,7 +3657,7 @@
       <c r="B37" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="23">
+      <c r="C37" s="20">
         <v>12</v>
       </c>
       <c r="D37" s="12" t="str">
@@ -3689,7 +3672,7 @@
       <c r="B38" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C38" s="23">
+      <c r="C38" s="20">
         <v>12</v>
       </c>
       <c r="D38" s="12" t="str">
@@ -3704,7 +3687,7 @@
       <c r="B39" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C39" s="23">
+      <c r="C39" s="20">
         <v>12</v>
       </c>
       <c r="D39" s="12" t="str">
@@ -3719,7 +3702,7 @@
       <c r="B40" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C40" s="23">
+      <c r="C40" s="20">
         <v>12</v>
       </c>
       <c r="D40" s="12" t="str">
@@ -3734,7 +3717,7 @@
       <c r="B41" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C41" s="23">
+      <c r="C41" s="20">
         <v>12</v>
       </c>
       <c r="D41" s="12" t="str">
@@ -3749,7 +3732,7 @@
       <c r="B42" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C42" s="23">
+      <c r="C42" s="20">
         <v>13</v>
       </c>
       <c r="D42" s="12" t="str">
@@ -3764,7 +3747,7 @@
       <c r="B43" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C43" s="23">
+      <c r="C43" s="20">
         <v>13</v>
       </c>
       <c r="D43" s="12" t="str">
@@ -3779,7 +3762,7 @@
       <c r="B44" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C44" s="23">
+      <c r="C44" s="20">
         <v>13</v>
       </c>
       <c r="D44" s="12" t="str">
@@ -3794,7 +3777,7 @@
       <c r="B45" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C45" s="23">
+      <c r="C45" s="20">
         <v>14</v>
       </c>
       <c r="D45" s="12" t="str">
@@ -3809,7 +3792,7 @@
       <c r="B46" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C46" s="23">
+      <c r="C46" s="20">
         <v>14</v>
       </c>
       <c r="D46" s="12" t="str">
@@ -3824,7 +3807,7 @@
       <c r="B47" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C47" s="23">
+      <c r="C47" s="20">
         <v>15</v>
       </c>
       <c r="D47" s="12" t="str">
@@ -3839,7 +3822,7 @@
       <c r="B48" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C48" s="23">
+      <c r="C48" s="20">
         <v>15</v>
       </c>
       <c r="D48" s="12" t="str">
@@ -3854,7 +3837,7 @@
       <c r="B49" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C49" s="23">
+      <c r="C49" s="20">
         <v>15</v>
       </c>
       <c r="D49" s="12" t="str">
@@ -3869,7 +3852,7 @@
       <c r="B50" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C50" s="23">
+      <c r="C50" s="20">
         <v>15</v>
       </c>
       <c r="D50" s="12" t="str">
@@ -3884,7 +3867,7 @@
       <c r="B51" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C51" s="23">
+      <c r="C51" s="20">
         <v>15</v>
       </c>
       <c r="D51" s="12" t="str">
@@ -3899,7 +3882,7 @@
       <c r="B52" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C52" s="23">
+      <c r="C52" s="20">
         <v>15</v>
       </c>
       <c r="D52" s="12" t="str">
@@ -3914,7 +3897,7 @@
       <c r="B53" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C53" s="23">
+      <c r="C53" s="20">
         <v>16</v>
       </c>
       <c r="D53" s="12" t="str">
@@ -3929,7 +3912,7 @@
       <c r="B54" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C54" s="23">
+      <c r="C54" s="20">
         <v>16</v>
       </c>
       <c r="D54" s="12" t="str">
@@ -3944,7 +3927,7 @@
       <c r="B55" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C55" s="23">
+      <c r="C55" s="20">
         <v>16</v>
       </c>
       <c r="D55" s="12" t="str">
@@ -3959,7 +3942,7 @@
       <c r="B56" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C56" s="23">
+      <c r="C56" s="20">
         <v>17</v>
       </c>
       <c r="D56" s="12" t="str">
@@ -3974,7 +3957,7 @@
       <c r="B57" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C57" s="23">
+      <c r="C57" s="20">
         <v>18</v>
       </c>
       <c r="D57" s="12" t="str">
@@ -3989,7 +3972,7 @@
       <c r="B58" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C58" s="23">
+      <c r="C58" s="20">
         <v>18</v>
       </c>
       <c r="D58" s="12" t="str">
@@ -4004,7 +3987,7 @@
       <c r="B59" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C59" s="23">
+      <c r="C59" s="20">
         <v>19</v>
       </c>
       <c r="D59" s="12" t="str">
@@ -4019,7 +4002,7 @@
       <c r="B60" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C60" s="23">
+      <c r="C60" s="20">
         <v>19</v>
       </c>
       <c r="D60" s="12" t="str">
@@ -4034,7 +4017,7 @@
       <c r="B61" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C61" s="23">
+      <c r="C61" s="20">
         <v>19</v>
       </c>
       <c r="D61" s="12" t="str">
@@ -4049,7 +4032,7 @@
       <c r="B62" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C62" s="23">
+      <c r="C62" s="20">
         <v>19</v>
       </c>
       <c r="D62" s="12" t="str">
@@ -4064,7 +4047,7 @@
       <c r="B63" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C63" s="23">
+      <c r="C63" s="20">
         <v>20</v>
       </c>
       <c r="D63" s="12" t="str">
@@ -4079,7 +4062,7 @@
       <c r="B64" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C64" s="23">
+      <c r="C64" s="20">
         <v>20</v>
       </c>
       <c r="D64" s="12" t="str">
@@ -4094,7 +4077,7 @@
       <c r="B65" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C65" s="23">
+      <c r="C65" s="20">
         <v>21</v>
       </c>
       <c r="D65" s="12" t="str">
@@ -4109,7 +4092,7 @@
       <c r="B66" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C66" s="23">
+      <c r="C66" s="20">
         <v>21</v>
       </c>
       <c r="D66" s="12" t="str">
@@ -4124,7 +4107,7 @@
       <c r="B67" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C67" s="23">
+      <c r="C67" s="20">
         <v>21</v>
       </c>
       <c r="D67" s="12" t="str">
@@ -4139,7 +4122,7 @@
       <c r="B68" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C68" s="23">
+      <c r="C68" s="20">
         <v>22</v>
       </c>
       <c r="D68" s="12" t="str">
@@ -4154,7 +4137,7 @@
       <c r="B69" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C69" s="23">
+      <c r="C69" s="20">
         <v>22</v>
       </c>
       <c r="D69" s="12" t="str">
@@ -4169,7 +4152,7 @@
       <c r="B70" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C70" s="23">
+      <c r="C70" s="20">
         <v>23</v>
       </c>
       <c r="D70" s="12" t="str">
@@ -4184,7 +4167,7 @@
       <c r="B71" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C71" s="23">
+      <c r="C71" s="20">
         <v>23</v>
       </c>
       <c r="D71" s="12" t="str">
@@ -4199,7 +4182,7 @@
       <c r="B72" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C72" s="23">
+      <c r="C72" s="20">
         <v>23</v>
       </c>
       <c r="D72" s="12" t="str">
@@ -4214,7 +4197,7 @@
       <c r="B73" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C73" s="23">
+      <c r="C73" s="20">
         <v>24</v>
       </c>
       <c r="D73" s="12" t="str">
@@ -4229,7 +4212,7 @@
       <c r="B74" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C74" s="23">
+      <c r="C74" s="20">
         <v>24</v>
       </c>
       <c r="D74" s="12" t="str">
@@ -4244,7 +4227,7 @@
       <c r="B75" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C75" s="23">
+      <c r="C75" s="20">
         <v>24</v>
       </c>
       <c r="D75" s="12" t="str">
@@ -4259,7 +4242,7 @@
       <c r="B76" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C76" s="23">
+      <c r="C76" s="20">
         <v>24</v>
       </c>
       <c r="D76" s="12" t="str">
@@ -4274,7 +4257,7 @@
       <c r="B77" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C77" s="23">
+      <c r="C77" s="20">
         <v>24</v>
       </c>
       <c r="D77" s="12" t="str">
@@ -4289,7 +4272,7 @@
       <c r="B78" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C78" s="23">
+      <c r="C78" s="20">
         <v>25</v>
       </c>
       <c r="D78" s="12" t="str">
@@ -4304,7 +4287,7 @@
       <c r="B79" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C79" s="23">
+      <c r="C79" s="20">
         <v>25</v>
       </c>
       <c r="D79" s="12" t="str">
@@ -4319,7 +4302,7 @@
       <c r="B80" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C80" s="23">
+      <c r="C80" s="20">
         <v>25</v>
       </c>
       <c r="D80" s="12" t="str">
@@ -4334,7 +4317,7 @@
       <c r="B81" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C81" s="23">
+      <c r="C81" s="20">
         <v>25</v>
       </c>
       <c r="D81" s="12" t="str">
@@ -4349,7 +4332,7 @@
       <c r="B82" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C82" s="23">
+      <c r="C82" s="20">
         <v>26</v>
       </c>
       <c r="D82" s="12" t="str">
@@ -4364,7 +4347,7 @@
       <c r="B83" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C83" s="23">
+      <c r="C83" s="20">
         <v>26</v>
       </c>
       <c r="D83" s="12" t="str">
@@ -4379,7 +4362,7 @@
       <c r="B84" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C84" s="23">
+      <c r="C84" s="20">
         <v>26</v>
       </c>
       <c r="D84" s="12" t="str">
@@ -4394,7 +4377,7 @@
       <c r="B85" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C85" s="23">
+      <c r="C85" s="20">
         <v>26</v>
       </c>
       <c r="D85" s="12" t="str">
@@ -4409,7 +4392,7 @@
       <c r="B86" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C86" s="23">
+      <c r="C86" s="20">
         <v>27</v>
       </c>
       <c r="D86" s="12" t="str">
@@ -4424,7 +4407,7 @@
       <c r="B87" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C87" s="23">
+      <c r="C87" s="20">
         <v>27</v>
       </c>
       <c r="D87" s="12" t="str">
@@ -4439,7 +4422,7 @@
       <c r="B88" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C88" s="23">
+      <c r="C88" s="20">
         <v>27</v>
       </c>
       <c r="D88" s="12" t="str">
@@ -4454,7 +4437,7 @@
       <c r="B89" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C89" s="23">
+      <c r="C89" s="20">
         <v>27</v>
       </c>
       <c r="D89" s="12" t="str">
@@ -4469,7 +4452,7 @@
       <c r="B90" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C90" s="23">
+      <c r="C90" s="20">
         <v>27</v>
       </c>
       <c r="D90" s="12" t="str">
@@ -4484,7 +4467,7 @@
       <c r="B91" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C91" s="23">
+      <c r="C91" s="20">
         <v>28</v>
       </c>
       <c r="D91" s="12" t="str">
@@ -4499,7 +4482,7 @@
       <c r="B92" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C92" s="23">
+      <c r="C92" s="20">
         <v>28</v>
       </c>
       <c r="D92" s="12" t="str">
@@ -4514,7 +4497,7 @@
       <c r="B93" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C93" s="23">
+      <c r="C93" s="20">
         <v>28</v>
       </c>
       <c r="D93" s="12" t="str">
@@ -4529,7 +4512,7 @@
       <c r="B94" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C94" s="23">
+      <c r="C94" s="20">
         <v>29</v>
       </c>
       <c r="D94" s="12" t="str">
@@ -4544,7 +4527,7 @@
       <c r="B95" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C95" s="23">
+      <c r="C95" s="20">
         <v>29</v>
       </c>
       <c r="D95" s="12" t="str">
@@ -4559,7 +4542,7 @@
       <c r="B96" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C96" s="23">
+      <c r="C96" s="20">
         <v>29</v>
       </c>
       <c r="D96" s="12" t="str">
@@ -4574,7 +4557,7 @@
       <c r="B97" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C97" s="23">
+      <c r="C97" s="20">
         <v>29</v>
       </c>
       <c r="D97" s="12" t="str">
@@ -4589,7 +4572,7 @@
       <c r="B98" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C98" s="23">
+      <c r="C98" s="20">
         <v>29</v>
       </c>
       <c r="D98" s="12" t="str">
@@ -4604,7 +4587,7 @@
       <c r="B99" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C99" s="23">
+      <c r="C99" s="20">
         <v>34</v>
       </c>
       <c r="D99" s="12" t="str">
@@ -4619,7 +4602,7 @@
       <c r="B100" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C100" s="23">
+      <c r="C100" s="20">
         <v>35</v>
       </c>
       <c r="D100" s="12" t="str">
@@ -4634,7 +4617,7 @@
       <c r="B101" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C101" s="23">
+      <c r="C101" s="20">
         <v>35</v>
       </c>
       <c r="D101" s="12" t="str">
@@ -4649,7 +4632,7 @@
       <c r="B102" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C102" s="23">
+      <c r="C102" s="20">
         <v>35</v>
       </c>
       <c r="D102" s="12" t="str">
@@ -4664,7 +4647,7 @@
       <c r="B103" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C103" s="23">
+      <c r="C103" s="20">
         <v>35</v>
       </c>
       <c r="D103" s="12" t="str">
@@ -4679,7 +4662,7 @@
       <c r="B104" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C104" s="23">
+      <c r="C104" s="20">
         <v>35</v>
       </c>
       <c r="D104" s="12" t="str">
@@ -4694,7 +4677,7 @@
       <c r="B105" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C105" s="23">
+      <c r="C105" s="20">
         <v>35</v>
       </c>
       <c r="D105" s="12" t="str">
@@ -4709,7 +4692,7 @@
       <c r="B106" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C106" s="23">
+      <c r="C106" s="20">
         <v>35</v>
       </c>
       <c r="D106" s="12" t="str">
@@ -4724,7 +4707,7 @@
       <c r="B107" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C107" s="23">
+      <c r="C107" s="20">
         <v>35</v>
       </c>
       <c r="D107" s="12" t="str">
@@ -4739,7 +4722,7 @@
       <c r="B108" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C108" s="23">
+      <c r="C108" s="20">
         <v>35</v>
       </c>
       <c r="D108" s="12" t="str">
@@ -4754,7 +4737,7 @@
       <c r="B109" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C109" s="23">
+      <c r="C109" s="20">
         <v>35</v>
       </c>
       <c r="D109" s="12" t="str">
@@ -4769,7 +4752,7 @@
       <c r="B110" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C110" s="23">
+      <c r="C110" s="20">
         <v>35</v>
       </c>
       <c r="D110" s="12" t="str">
@@ -4784,7 +4767,7 @@
       <c r="B111" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C111" s="23">
+      <c r="C111" s="20">
         <v>36</v>
       </c>
       <c r="D111" s="12" t="str">
@@ -4799,7 +4782,7 @@
       <c r="B112" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C112" s="23">
+      <c r="C112" s="20">
         <v>36</v>
       </c>
       <c r="D112" s="12" t="str">
@@ -4814,7 +4797,7 @@
       <c r="B113" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C113" s="23">
+      <c r="C113" s="20">
         <v>37</v>
       </c>
       <c r="D113" s="12" t="str">
@@ -4829,7 +4812,7 @@
       <c r="B114" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C114" s="23">
+      <c r="C114" s="20">
         <v>37</v>
       </c>
       <c r="D114" s="12" t="str">
@@ -4844,7 +4827,7 @@
       <c r="B115" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C115" s="23">
+      <c r="C115" s="20">
         <v>38</v>
       </c>
       <c r="D115" s="12" t="str">
@@ -4859,7 +4842,7 @@
       <c r="B116" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C116" s="23">
+      <c r="C116" s="20">
         <v>38</v>
       </c>
       <c r="D116" s="12" t="str">
@@ -4874,7 +4857,7 @@
       <c r="B117" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C117" s="23">
+      <c r="C117" s="20">
         <v>38</v>
       </c>
       <c r="D117" s="12" t="str">
@@ -4889,7 +4872,7 @@
       <c r="B118" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C118" s="23">
+      <c r="C118" s="20">
         <v>38</v>
       </c>
       <c r="D118" s="12" t="str">
@@ -4904,7 +4887,7 @@
       <c r="B119" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C119" s="23">
+      <c r="C119" s="20">
         <v>38</v>
       </c>
       <c r="D119" s="12" t="str">
@@ -4919,7 +4902,7 @@
       <c r="B120" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C120" s="23">
+      <c r="C120" s="20">
         <v>38</v>
       </c>
       <c r="D120" s="12" t="str">
@@ -4934,7 +4917,7 @@
       <c r="B121" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C121" s="23">
+      <c r="C121" s="20">
         <v>38</v>
       </c>
       <c r="D121" s="12" t="str">
@@ -4949,7 +4932,7 @@
       <c r="B122" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C122" s="23">
+      <c r="C122" s="20">
         <v>38</v>
       </c>
       <c r="D122" s="12" t="str">
@@ -4964,7 +4947,7 @@
       <c r="B123" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C123" s="23">
+      <c r="C123" s="20">
         <v>39</v>
       </c>
       <c r="D123" s="12" t="str">
@@ -4979,7 +4962,7 @@
       <c r="B124" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C124" s="23">
+      <c r="C124" s="20">
         <v>39</v>
       </c>
       <c r="D124" s="12" t="str">
@@ -4994,7 +4977,7 @@
       <c r="B125" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C125" s="23">
+      <c r="C125" s="20">
         <v>39</v>
       </c>
       <c r="D125" s="12" t="str">
@@ -5009,7 +4992,7 @@
       <c r="B126" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C126" s="23">
+      <c r="C126" s="20">
         <v>40</v>
       </c>
       <c r="D126" s="12" t="str">
@@ -5024,7 +5007,7 @@
       <c r="B127" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C127" s="23">
+      <c r="C127" s="20">
         <v>41</v>
       </c>
       <c r="D127" s="12" t="str">
@@ -5039,7 +5022,7 @@
       <c r="B128" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C128" s="23">
+      <c r="C128" s="20">
         <v>41</v>
       </c>
       <c r="D128" s="12" t="str">
@@ -5054,7 +5037,7 @@
       <c r="B129" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C129" s="23">
+      <c r="C129" s="20">
         <v>41</v>
       </c>
       <c r="D129" s="12" t="str">
@@ -5069,7 +5052,7 @@
       <c r="B130" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C130" s="23">
+      <c r="C130" s="20">
         <v>41</v>
       </c>
       <c r="D130" s="12" t="str">
@@ -5084,7 +5067,7 @@
       <c r="B131" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C131" s="23">
+      <c r="C131" s="20">
         <v>41</v>
       </c>
       <c r="D131" s="12" t="str">
@@ -5099,7 +5082,7 @@
       <c r="B132" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C132" s="23">
+      <c r="C132" s="20">
         <v>42</v>
       </c>
       <c r="D132" s="12" t="str">
@@ -5114,7 +5097,7 @@
       <c r="B133" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C133" s="23">
+      <c r="C133" s="20">
         <v>42</v>
       </c>
       <c r="D133" s="12" t="str">
@@ -5129,7 +5112,7 @@
       <c r="B134" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C134" s="23">
+      <c r="C134" s="20">
         <v>42</v>
       </c>
       <c r="D134" s="12" t="str">
@@ -5144,7 +5127,7 @@
       <c r="B135" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C135" s="23">
+      <c r="C135" s="20">
         <v>42</v>
       </c>
       <c r="D135" s="12" t="str">
@@ -5159,7 +5142,7 @@
       <c r="B136" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C136" s="23">
+      <c r="C136" s="20">
         <v>42</v>
       </c>
       <c r="D136" s="12" t="str">
@@ -5174,7 +5157,7 @@
       <c r="B137" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C137" s="23">
+      <c r="C137" s="20">
         <v>43</v>
       </c>
       <c r="D137" s="12" t="str">
@@ -5189,7 +5172,7 @@
       <c r="B138" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C138" s="23">
+      <c r="C138" s="20">
         <v>43</v>
       </c>
       <c r="D138" s="12" t="str">
@@ -5204,7 +5187,7 @@
       <c r="B139" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C139" s="23">
+      <c r="C139" s="20">
         <v>43</v>
       </c>
       <c r="D139" s="12" t="str">
@@ -5212,14 +5195,14 @@
         <v>Сервис и туризм</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>689</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C140" s="23">
+      <c r="C140" s="20">
         <v>44</v>
       </c>
       <c r="D140" s="12" t="str">
@@ -5227,14 +5210,14 @@
         <v>Образование и педагогические науки</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>690</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C141" s="23">
+      <c r="C141" s="20">
         <v>44</v>
       </c>
       <c r="D141" s="12" t="str">
@@ -5242,14 +5225,14 @@
         <v>Образование и педагогические науки</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>691</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C142" s="23">
+      <c r="C142" s="20">
         <v>44</v>
       </c>
       <c r="D142" s="12" t="str">
@@ -5257,14 +5240,14 @@
         <v>Образование и педагогические науки</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>692</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C143" s="23">
+      <c r="C143" s="20">
         <v>44</v>
       </c>
       <c r="D143" s="12" t="str">
@@ -5272,14 +5255,14 @@
         <v>Образование и педагогические науки</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>693</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C144" s="23">
+      <c r="C144" s="20">
         <v>44</v>
       </c>
       <c r="D144" s="12" t="str">
@@ -5294,7 +5277,7 @@
       <c r="B145" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C145" s="23">
+      <c r="C145" s="20">
         <v>45</v>
       </c>
       <c r="D145" s="12" t="str">
@@ -5309,7 +5292,7 @@
       <c r="B146" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C146" s="23">
+      <c r="C146" s="20">
         <v>45</v>
       </c>
       <c r="D146" s="12" t="str">
@@ -5324,7 +5307,7 @@
       <c r="B147" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C147" s="23">
+      <c r="C147" s="20">
         <v>45</v>
       </c>
       <c r="D147" s="12" t="str">
@@ -5339,7 +5322,7 @@
       <c r="B148" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C148" s="23">
+      <c r="C148" s="20">
         <v>45</v>
       </c>
       <c r="D148" s="12" t="str">
@@ -5354,7 +5337,7 @@
       <c r="B149" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C149" s="23">
+      <c r="C149" s="20">
         <v>46</v>
       </c>
       <c r="D149" s="12" t="str">
@@ -5369,7 +5352,7 @@
       <c r="B150" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C150" s="23">
+      <c r="C150" s="20">
         <v>46</v>
       </c>
       <c r="D150" s="12" t="str">
@@ -5384,7 +5367,7 @@
       <c r="B151" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C151" s="23">
+      <c r="C151" s="20">
         <v>46</v>
       </c>
       <c r="D151" s="12" t="str">
@@ -5399,7 +5382,7 @@
       <c r="B152" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C152" s="23">
+      <c r="C152" s="20">
         <v>46</v>
       </c>
       <c r="D152" s="12" t="str">
@@ -5414,7 +5397,7 @@
       <c r="B153" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C153" s="23">
+      <c r="C153" s="20">
         <v>47</v>
       </c>
       <c r="D153" s="12" t="str">
@@ -5429,7 +5412,7 @@
       <c r="B154" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C154" s="23">
+      <c r="C154" s="20">
         <v>47</v>
       </c>
       <c r="D154" s="12" t="str">
@@ -5444,7 +5427,7 @@
       <c r="B155" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C155" s="23">
+      <c r="C155" s="20">
         <v>47</v>
       </c>
       <c r="D155" s="12" t="str">
@@ -5459,7 +5442,7 @@
       <c r="B156" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="C156" s="23">
+      <c r="C156" s="20">
         <v>48</v>
       </c>
       <c r="D156" s="12" t="str">
@@ -5474,7 +5457,7 @@
       <c r="B157" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C157" s="23">
+      <c r="C157" s="20">
         <v>49</v>
       </c>
       <c r="D157" s="12" t="str">
@@ -5489,7 +5472,7 @@
       <c r="B158" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C158" s="23">
+      <c r="C158" s="20">
         <v>49</v>
       </c>
       <c r="D158" s="12" t="str">
@@ -5504,7 +5487,7 @@
       <c r="B159" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C159" s="23">
+      <c r="C159" s="20">
         <v>49</v>
       </c>
       <c r="D159" s="12" t="str">
@@ -5519,7 +5502,7 @@
       <c r="B160" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="C160" s="23">
+      <c r="C160" s="20">
         <v>49</v>
       </c>
       <c r="D160" s="12" t="str">
@@ -5534,7 +5517,7 @@
       <c r="B161" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C161" s="23">
+      <c r="C161" s="20">
         <v>50</v>
       </c>
       <c r="D161" s="12" t="str">
@@ -5549,7 +5532,7 @@
       <c r="B162" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C162" s="23">
+      <c r="C162" s="20">
         <v>50</v>
       </c>
       <c r="D162" s="12" t="str">
@@ -5564,7 +5547,7 @@
       <c r="B163" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C163" s="23">
+      <c r="C163" s="20">
         <v>50</v>
       </c>
       <c r="D163" s="12" t="str">
@@ -5579,7 +5562,7 @@
       <c r="B164" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C164" s="23">
+      <c r="C164" s="20">
         <v>50</v>
       </c>
       <c r="D164" s="12" t="str">
@@ -5594,7 +5577,7 @@
       <c r="B165" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C165" s="23">
+      <c r="C165" s="20">
         <v>51</v>
       </c>
       <c r="D165" s="12" t="str">
@@ -5609,7 +5592,7 @@
       <c r="B166" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C166" s="23">
+      <c r="C166" s="20">
         <v>51</v>
       </c>
       <c r="D166" s="12" t="str">
@@ -5624,7 +5607,7 @@
       <c r="B167" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C167" s="23">
+      <c r="C167" s="20">
         <v>51</v>
       </c>
       <c r="D167" s="12" t="str">
@@ -5639,7 +5622,7 @@
       <c r="B168" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C168" s="23">
+      <c r="C168" s="20">
         <v>51</v>
       </c>
       <c r="D168" s="12" t="str">
@@ -5654,7 +5637,7 @@
       <c r="B169" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C169" s="23">
+      <c r="C169" s="20">
         <v>51</v>
       </c>
       <c r="D169" s="12" t="str">
@@ -5669,7 +5652,7 @@
       <c r="B170" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C170" s="23">
+      <c r="C170" s="20">
         <v>51</v>
       </c>
       <c r="D170" s="12" t="str">
@@ -5684,7 +5667,7 @@
       <c r="B171" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="C171" s="23">
+      <c r="C171" s="20">
         <v>52</v>
       </c>
       <c r="D171" s="12" t="str">
@@ -5699,7 +5682,7 @@
       <c r="B172" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C172" s="23">
+      <c r="C172" s="20">
         <v>52</v>
       </c>
       <c r="D172" s="12" t="str">
@@ -5714,7 +5697,7 @@
       <c r="B173" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C173" s="23">
+      <c r="C173" s="20">
         <v>52</v>
       </c>
       <c r="D173" s="12" t="str">
@@ -5729,7 +5712,7 @@
       <c r="B174" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C174" s="23">
+      <c r="C174" s="20">
         <v>52</v>
       </c>
       <c r="D174" s="12" t="str">
@@ -5744,7 +5727,7 @@
       <c r="B175" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C175" s="23">
+      <c r="C175" s="20">
         <v>52</v>
       </c>
       <c r="D175" s="12" t="str">
@@ -5759,7 +5742,7 @@
       <c r="B176" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="C176" s="23">
+      <c r="C176" s="20">
         <v>52</v>
       </c>
       <c r="D176" s="12" t="str">
@@ -5774,7 +5757,7 @@
       <c r="B177" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C177" s="23">
+      <c r="C177" s="20">
         <v>53</v>
       </c>
       <c r="D177" s="12" t="str">
@@ -5789,7 +5772,7 @@
       <c r="B178" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="C178" s="23">
+      <c r="C178" s="20">
         <v>53</v>
       </c>
       <c r="D178" s="12" t="str">
@@ -5804,7 +5787,7 @@
       <c r="B179" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C179" s="23">
+      <c r="C179" s="20">
         <v>53</v>
       </c>
       <c r="D179" s="12" t="str">
@@ -5819,7 +5802,7 @@
       <c r="B180" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="C180" s="23">
+      <c r="C180" s="20">
         <v>53</v>
       </c>
       <c r="D180" s="12" t="str">
@@ -5834,7 +5817,7 @@
       <c r="B181" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C181" s="23">
+      <c r="C181" s="20">
         <v>53</v>
       </c>
       <c r="D181" s="12" t="str">
@@ -5849,7 +5832,7 @@
       <c r="B182" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C182" s="23">
+      <c r="C182" s="20">
         <v>53</v>
       </c>
       <c r="D182" s="12" t="str">
@@ -5864,7 +5847,7 @@
       <c r="B183" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C183" s="23">
+      <c r="C183" s="20">
         <v>54</v>
       </c>
       <c r="D183" s="12" t="str">
@@ -5879,7 +5862,7 @@
       <c r="B184" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="C184" s="23">
+      <c r="C184" s="20">
         <v>54</v>
       </c>
       <c r="D184" s="12" t="str">
@@ -5894,7 +5877,7 @@
       <c r="B185" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="C185" s="23">
+      <c r="C185" s="20">
         <v>54</v>
       </c>
       <c r="D185" s="12" t="str">
@@ -5909,7 +5892,7 @@
       <c r="B186" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C186" s="23">
+      <c r="C186" s="20">
         <v>54</v>
       </c>
       <c r="D186" s="12" t="str">
@@ -5917,24 +5900,23 @@
         <v>Изобразительное и прикладные виды искусств</v>
       </c>
     </row>
-    <row r="187" spans="1:4" s="21" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A187" s="18" t="s">
+    <row r="187" spans="1:4" s="18" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A187" s="15" t="s">
         <v>736</v>
       </c>
-      <c r="B187" s="19" t="s">
+      <c r="B187" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="C187" s="24">
+      <c r="C187" s="21">
         <v>41</v>
       </c>
-      <c r="D187" s="20" t="str">
+      <c r="D187" s="17" t="str">
         <f>VLOOKUP(C187,Ключ!$B:$C,2,0)</f>
         <v>Политические науки и регионоведение</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:D187" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -5945,18 +5927,18 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:D187"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="A95" zoomScale="95" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.7109375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.7109375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="14" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
@@ -5966,7 +5948,7 @@
       <c r="B1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="19" t="s">
         <v>69</v>
       </c>
       <c r="D1" s="10" t="s">
@@ -5980,7 +5962,7 @@
       <c r="B2" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="20">
         <v>1</v>
       </c>
       <c r="D2" s="13" t="str">
@@ -5995,7 +5977,7 @@
       <c r="B3" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="20">
         <v>3</v>
       </c>
       <c r="D3" s="13" t="str">
@@ -6010,7 +5992,7 @@
       <c r="B4" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="20">
         <v>3</v>
       </c>
       <c r="D4" s="13" t="str">
@@ -6025,7 +6007,7 @@
       <c r="B5" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="20">
         <v>4</v>
       </c>
       <c r="D5" s="13" t="str">
@@ -6040,7 +6022,7 @@
       <c r="B6" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="20">
         <v>6</v>
       </c>
       <c r="D6" s="13" t="str">
@@ -6055,7 +6037,7 @@
       <c r="B7" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="20">
         <v>6</v>
       </c>
       <c r="D7" s="13" t="str">
@@ -6070,7 +6052,7 @@
       <c r="B8" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="20">
         <v>8</v>
       </c>
       <c r="D8" s="13" t="str">
@@ -6085,7 +6067,7 @@
       <c r="B9" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="20">
         <v>8</v>
       </c>
       <c r="D9" s="13" t="str">
@@ -6100,7 +6082,7 @@
       <c r="B10" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="20">
         <v>8</v>
       </c>
       <c r="D10" s="13" t="str">
@@ -6115,7 +6097,7 @@
       <c r="B11" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="20">
         <v>8</v>
       </c>
       <c r="D11" s="13" t="str">
@@ -6130,7 +6112,7 @@
       <c r="B12" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="20">
         <v>9</v>
       </c>
       <c r="D12" s="13" t="str">
@@ -6145,7 +6127,7 @@
       <c r="B13" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="20">
         <v>10</v>
       </c>
       <c r="D13" s="13" t="str">
@@ -6160,7 +6142,7 @@
       <c r="B14" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="20">
         <v>10</v>
       </c>
       <c r="D14" s="13" t="str">
@@ -6175,7 +6157,7 @@
       <c r="B15" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="20">
         <v>10</v>
       </c>
       <c r="D15" s="13" t="str">
@@ -6190,7 +6172,7 @@
       <c r="B16" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="20">
         <v>10</v>
       </c>
       <c r="D16" s="13" t="str">
@@ -6205,7 +6187,7 @@
       <c r="B17" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="20">
         <v>10</v>
       </c>
       <c r="D17" s="13" t="str">
@@ -6220,7 +6202,7 @@
       <c r="B18" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="20">
         <v>10</v>
       </c>
       <c r="D18" s="13" t="str">
@@ -6235,7 +6217,7 @@
       <c r="B19" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="20">
         <v>11</v>
       </c>
       <c r="D19" s="13" t="str">
@@ -6250,7 +6232,7 @@
       <c r="B20" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="20">
         <v>11</v>
       </c>
       <c r="D20" s="13" t="str">
@@ -6265,7 +6247,7 @@
       <c r="B21" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="20">
         <v>11</v>
       </c>
       <c r="D21" s="13" t="str">
@@ -6280,7 +6262,7 @@
       <c r="B22" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="20">
         <v>12</v>
       </c>
       <c r="D22" s="13" t="str">
@@ -6295,7 +6277,7 @@
       <c r="B23" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="20">
         <v>13</v>
       </c>
       <c r="D23" s="13" t="str">
@@ -6310,7 +6292,7 @@
       <c r="B24" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="20">
         <v>13</v>
       </c>
       <c r="D24" s="13" t="str">
@@ -6325,7 +6307,7 @@
       <c r="B25" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="20">
         <v>14</v>
       </c>
       <c r="D25" s="13" t="str">
@@ -6340,7 +6322,7 @@
       <c r="B26" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="20">
         <v>14</v>
       </c>
       <c r="D26" s="13" t="str">
@@ -6355,7 +6337,7 @@
       <c r="B27" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="20">
         <v>14</v>
       </c>
       <c r="D27" s="13" t="str">
@@ -6370,7 +6352,7 @@
       <c r="B28" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="20">
         <v>15</v>
       </c>
       <c r="D28" s="13" t="str">
@@ -6385,7 +6367,7 @@
       <c r="B29" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="20">
         <v>15</v>
       </c>
       <c r="D29" s="13" t="str">
@@ -6400,7 +6382,7 @@
       <c r="B30" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="20">
         <v>16</v>
       </c>
       <c r="D30" s="13" t="str">
@@ -6415,7 +6397,7 @@
       <c r="B31" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="20">
         <v>17</v>
       </c>
       <c r="D31" s="13" t="str">
@@ -6430,7 +6412,7 @@
       <c r="B32" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="C32" s="23">
+      <c r="C32" s="20">
         <v>17</v>
       </c>
       <c r="D32" s="13" t="str">
@@ -6445,7 +6427,7 @@
       <c r="B33" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="C33" s="23">
+      <c r="C33" s="20">
         <v>17</v>
       </c>
       <c r="D33" s="13" t="str">
@@ -6460,7 +6442,7 @@
       <c r="B34" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="C34" s="23">
+      <c r="C34" s="20">
         <v>18</v>
       </c>
       <c r="D34" s="13" t="str">
@@ -6475,7 +6457,7 @@
       <c r="B35" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="C35" s="23">
+      <c r="C35" s="20">
         <v>18</v>
       </c>
       <c r="D35" s="13" t="str">
@@ -6490,7 +6472,7 @@
       <c r="B36" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="C36" s="23">
+      <c r="C36" s="20">
         <v>20</v>
       </c>
       <c r="D36" s="13" t="str">
@@ -6505,7 +6487,7 @@
       <c r="B37" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="C37" s="23">
+      <c r="C37" s="20">
         <v>21</v>
       </c>
       <c r="D37" s="13" t="str">
@@ -6520,7 +6502,7 @@
       <c r="B38" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C38" s="23">
+      <c r="C38" s="20">
         <v>21</v>
       </c>
       <c r="D38" s="13" t="str">
@@ -6535,7 +6517,7 @@
       <c r="B39" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C39" s="23">
+      <c r="C39" s="20">
         <v>21</v>
       </c>
       <c r="D39" s="13" t="str">
@@ -6550,7 +6532,7 @@
       <c r="B40" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="C40" s="23">
+      <c r="C40" s="20">
         <v>21</v>
       </c>
       <c r="D40" s="13" t="str">
@@ -6565,7 +6547,7 @@
       <c r="B41" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C41" s="23">
+      <c r="C41" s="20">
         <v>21</v>
       </c>
       <c r="D41" s="13" t="str">
@@ -6580,7 +6562,7 @@
       <c r="B42" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="C42" s="23">
+      <c r="C42" s="20">
         <v>21</v>
       </c>
       <c r="D42" s="13" t="str">
@@ -6595,7 +6577,7 @@
       <c r="B43" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="C43" s="23">
+      <c r="C43" s="20">
         <v>23</v>
       </c>
       <c r="D43" s="13" t="str">
@@ -6610,7 +6592,7 @@
       <c r="B44" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="C44" s="23">
+      <c r="C44" s="20">
         <v>23</v>
       </c>
       <c r="D44" s="13" t="str">
@@ -6625,7 +6607,7 @@
       <c r="B45" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="C45" s="23">
+      <c r="C45" s="20">
         <v>23</v>
       </c>
       <c r="D45" s="13" t="str">
@@ -6640,7 +6622,7 @@
       <c r="B46" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="C46" s="23">
+      <c r="C46" s="20">
         <v>23</v>
       </c>
       <c r="D46" s="13" t="str">
@@ -6655,7 +6637,7 @@
       <c r="B47" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C47" s="23">
+      <c r="C47" s="20">
         <v>23</v>
       </c>
       <c r="D47" s="13" t="str">
@@ -6670,7 +6652,7 @@
       <c r="B48" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="C48" s="23">
+      <c r="C48" s="20">
         <v>23</v>
       </c>
       <c r="D48" s="13" t="str">
@@ -6685,7 +6667,7 @@
       <c r="B49" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="C49" s="23">
+      <c r="C49" s="20">
         <v>24</v>
       </c>
       <c r="D49" s="13" t="str">
@@ -6700,7 +6682,7 @@
       <c r="B50" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="C50" s="23">
+      <c r="C50" s="20">
         <v>24</v>
       </c>
       <c r="D50" s="13" t="str">
@@ -6715,7 +6697,7 @@
       <c r="B51" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="C51" s="23">
+      <c r="C51" s="20">
         <v>24</v>
       </c>
       <c r="D51" s="13" t="str">
@@ -6730,7 +6712,7 @@
       <c r="B52" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="C52" s="23">
+      <c r="C52" s="20">
         <v>24</v>
       </c>
       <c r="D52" s="13" t="str">
@@ -6745,7 +6727,7 @@
       <c r="B53" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="C53" s="23">
+      <c r="C53" s="20">
         <v>24</v>
       </c>
       <c r="D53" s="13" t="str">
@@ -6760,7 +6742,7 @@
       <c r="B54" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="C54" s="23">
+      <c r="C54" s="20">
         <v>24</v>
       </c>
       <c r="D54" s="13" t="str">
@@ -6775,7 +6757,7 @@
       <c r="B55" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="C55" s="23">
+      <c r="C55" s="20">
         <v>24</v>
       </c>
       <c r="D55" s="13" t="str">
@@ -6783,14 +6765,14 @@
         <v>Авиационная и ракетно-космическая техника</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>791</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="C56" s="23">
+      <c r="C56" s="20">
         <v>25</v>
       </c>
       <c r="D56" s="13" t="str">
@@ -6798,14 +6780,14 @@
         <v>Аэронавигация и эксплуатация авиационной и ракетно-космической техники</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>792</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="C57" s="23">
+      <c r="C57" s="20">
         <v>25</v>
       </c>
       <c r="D57" s="13" t="str">
@@ -6813,14 +6795,14 @@
         <v>Аэронавигация и эксплуатация авиационной и ракетно-космической техники</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>793</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="C58" s="23">
+      <c r="C58" s="20">
         <v>25</v>
       </c>
       <c r="D58" s="13" t="str">
@@ -6835,7 +6817,7 @@
       <c r="B59" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="C59" s="23">
+      <c r="C59" s="20">
         <v>26</v>
       </c>
       <c r="D59" s="13" t="str">
@@ -6850,7 +6832,7 @@
       <c r="B60" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="C60" s="23">
+      <c r="C60" s="20">
         <v>26</v>
       </c>
       <c r="D60" s="13" t="str">
@@ -6865,7 +6847,7 @@
       <c r="B61" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="C61" s="23">
+      <c r="C61" s="20">
         <v>26</v>
       </c>
       <c r="D61" s="13" t="str">
@@ -6880,7 +6862,7 @@
       <c r="B62" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="C62" s="23">
+      <c r="C62" s="20">
         <v>26</v>
       </c>
       <c r="D62" s="13" t="str">
@@ -6895,7 +6877,7 @@
       <c r="B63" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="C63" s="23">
+      <c r="C63" s="20">
         <v>26</v>
       </c>
       <c r="D63" s="13" t="str">
@@ -6910,7 +6892,7 @@
       <c r="B64" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="C64" s="23">
+      <c r="C64" s="20">
         <v>26</v>
       </c>
       <c r="D64" s="13" t="str">
@@ -6925,7 +6907,7 @@
       <c r="B65" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="C65" s="23">
+      <c r="C65" s="20">
         <v>27</v>
       </c>
       <c r="D65" s="13" t="str">
@@ -6940,7 +6922,7 @@
       <c r="B66" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="C66" s="23">
+      <c r="C66" s="20">
         <v>27</v>
       </c>
       <c r="D66" s="13" t="str">
@@ -6955,7 +6937,7 @@
       <c r="B67" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="C67" s="23">
+      <c r="C67" s="20">
         <v>30</v>
       </c>
       <c r="D67" s="13" t="str">
@@ -6970,7 +6952,7 @@
       <c r="B68" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C68" s="23">
+      <c r="C68" s="20">
         <v>30</v>
       </c>
       <c r="D68" s="13" t="str">
@@ -6985,7 +6967,7 @@
       <c r="B69" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="C69" s="23">
+      <c r="C69" s="20">
         <v>30</v>
       </c>
       <c r="D69" s="13" t="str">
@@ -7000,7 +6982,7 @@
       <c r="B70" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="C70" s="23">
+      <c r="C70" s="20">
         <v>31</v>
       </c>
       <c r="D70" s="13" t="str">
@@ -7015,7 +6997,7 @@
       <c r="B71" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="C71" s="23">
+      <c r="C71" s="20">
         <v>31</v>
       </c>
       <c r="D71" s="13" t="str">
@@ -7030,7 +7012,7 @@
       <c r="B72" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="C72" s="23">
+      <c r="C72" s="20">
         <v>31</v>
       </c>
       <c r="D72" s="13" t="str">
@@ -7045,7 +7027,7 @@
       <c r="B73" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="C73" s="23">
+      <c r="C73" s="20">
         <v>31</v>
       </c>
       <c r="D73" s="13" t="str">
@@ -7060,7 +7042,7 @@
       <c r="B74" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="C74" s="23">
+      <c r="C74" s="20">
         <v>32</v>
       </c>
       <c r="D74" s="13" t="str">
@@ -7075,7 +7057,7 @@
       <c r="B75" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="C75" s="23">
+      <c r="C75" s="20">
         <v>33</v>
       </c>
       <c r="D75" s="13" t="str">
@@ -7090,7 +7072,7 @@
       <c r="B76" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="C76" s="23">
+      <c r="C76" s="20">
         <v>36</v>
       </c>
       <c r="D76" s="13" t="str">
@@ -7105,7 +7087,7 @@
       <c r="B77" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="C77" s="23">
+      <c r="C77" s="20">
         <v>37</v>
       </c>
       <c r="D77" s="13" t="str">
@@ -7120,7 +7102,7 @@
       <c r="B78" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="C78" s="23">
+      <c r="C78" s="20">
         <v>37</v>
       </c>
       <c r="D78" s="13" t="str">
@@ -7135,7 +7117,7 @@
       <c r="B79" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="C79" s="23">
+      <c r="C79" s="20">
         <v>38</v>
       </c>
       <c r="D79" s="13" t="str">
@@ -7150,7 +7132,7 @@
       <c r="B80" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="C80" s="23">
+      <c r="C80" s="20">
         <v>38</v>
       </c>
       <c r="D80" s="13" t="str">
@@ -7165,7 +7147,7 @@
       <c r="B81" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="C81" s="23">
+      <c r="C81" s="20">
         <v>40</v>
       </c>
       <c r="D81" s="13" t="str">
@@ -7180,7 +7162,7 @@
       <c r="B82" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="C82" s="23">
+      <c r="C82" s="20">
         <v>40</v>
       </c>
       <c r="D82" s="13" t="str">
@@ -7195,7 +7177,7 @@
       <c r="B83" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="C83" s="23">
+      <c r="C83" s="20">
         <v>40</v>
       </c>
       <c r="D83" s="13" t="str">
@@ -7210,7 +7192,7 @@
       <c r="B84" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="C84" s="23">
+      <c r="C84" s="20">
         <v>40</v>
       </c>
       <c r="D84" s="13" t="str">
@@ -7225,7 +7207,7 @@
       <c r="B85" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="C85" s="23">
+      <c r="C85" s="20">
         <v>44</v>
       </c>
       <c r="D85" s="13" t="str">
@@ -7240,7 +7222,7 @@
       <c r="B86" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="C86" s="23">
+      <c r="C86" s="20">
         <v>45</v>
       </c>
       <c r="D86" s="13" t="str">
@@ -7255,7 +7237,7 @@
       <c r="B87" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="C87" s="23">
+      <c r="C87" s="20">
         <v>51</v>
       </c>
       <c r="D87" s="13" t="str">
@@ -7270,7 +7252,7 @@
       <c r="B88" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="C88" s="23">
+      <c r="C88" s="20">
         <v>52</v>
       </c>
       <c r="D88" s="13" t="str">
@@ -7285,7 +7267,7 @@
       <c r="B89" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="C89" s="23">
+      <c r="C89" s="20">
         <v>52</v>
       </c>
       <c r="D89" s="13" t="str">
@@ -7300,7 +7282,7 @@
       <c r="B90" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="C90" s="23">
+      <c r="C90" s="20">
         <v>52</v>
       </c>
       <c r="D90" s="13" t="str">
@@ -7315,7 +7297,7 @@
       <c r="B91" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="C91" s="23">
+      <c r="C91" s="20">
         <v>52</v>
       </c>
       <c r="D91" s="13" t="str">
@@ -7330,7 +7312,7 @@
       <c r="B92" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="C92" s="23">
+      <c r="C92" s="20">
         <v>52</v>
       </c>
       <c r="D92" s="13" t="str">
@@ -7345,7 +7327,7 @@
       <c r="B93" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="C93" s="23">
+      <c r="C93" s="20">
         <v>53</v>
       </c>
       <c r="D93" s="13" t="str">
@@ -7360,7 +7342,7 @@
       <c r="B94" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="C94" s="23">
+      <c r="C94" s="20">
         <v>53</v>
       </c>
       <c r="D94" s="13" t="str">
@@ -7375,7 +7357,7 @@
       <c r="B95" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="C95" s="23">
+      <c r="C95" s="20">
         <v>53</v>
       </c>
       <c r="D95" s="13" t="str">
@@ -7390,7 +7372,7 @@
       <c r="B96" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="C96" s="23">
+      <c r="C96" s="20">
         <v>53</v>
       </c>
       <c r="D96" s="13" t="str">
@@ -7405,7 +7387,7 @@
       <c r="B97" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="C97" s="23">
+      <c r="C97" s="20">
         <v>53</v>
       </c>
       <c r="D97" s="13" t="str">
@@ -7420,7 +7402,7 @@
       <c r="B98" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="C98" s="23">
+      <c r="C98" s="20">
         <v>53</v>
       </c>
       <c r="D98" s="13" t="str">
@@ -7435,7 +7417,7 @@
       <c r="B99" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="C99" s="23">
+      <c r="C99" s="20">
         <v>54</v>
       </c>
       <c r="D99" s="13" t="str">
@@ -7450,7 +7432,7 @@
       <c r="B100" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="C100" s="23">
+      <c r="C100" s="20">
         <v>54</v>
       </c>
       <c r="D100" s="13" t="str">
@@ -7465,7 +7447,7 @@
       <c r="B101" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="C101" s="23">
+      <c r="C101" s="20">
         <v>54</v>
       </c>
       <c r="D101" s="13" t="str">
@@ -7480,7 +7462,7 @@
       <c r="B102" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="C102" s="23">
+      <c r="C102" s="20">
         <v>54</v>
       </c>
       <c r="D102" s="13" t="str">
@@ -7495,7 +7477,7 @@
       <c r="B103" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="C103" s="23">
+      <c r="C103" s="20">
         <v>54</v>
       </c>
       <c r="D103" s="13" t="str">
@@ -7510,7 +7492,7 @@
       <c r="B104" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="C104" s="23">
+      <c r="C104" s="20">
         <v>55</v>
       </c>
       <c r="D104" s="13" t="str">
@@ -7525,7 +7507,7 @@
       <c r="B105" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="C105" s="23">
+      <c r="C105" s="20">
         <v>55</v>
       </c>
       <c r="D105" s="13" t="str">
@@ -7540,7 +7522,7 @@
       <c r="B106" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="C106" s="23">
+      <c r="C106" s="20">
         <v>55</v>
       </c>
       <c r="D106" s="13" t="str">
@@ -7555,7 +7537,7 @@
       <c r="B107" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="C107" s="23">
+      <c r="C107" s="20">
         <v>55</v>
       </c>
       <c r="D107" s="13" t="str">
@@ -7570,7 +7552,7 @@
       <c r="B108" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="C108" s="23">
+      <c r="C108" s="20">
         <v>55</v>
       </c>
       <c r="D108" s="13" t="str">
@@ -7585,7 +7567,7 @@
       <c r="B109" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C109" s="23">
+      <c r="C109" s="20">
         <v>56</v>
       </c>
       <c r="D109" s="13" t="str">
@@ -7593,480 +7575,7 @@
         <v>Военное управление</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="14"/>
-      <c r="B110" s="15"/>
-      <c r="C110" s="26"/>
-      <c r="D110" s="15"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="14"/>
-      <c r="B111" s="15"/>
-      <c r="C111" s="26"/>
-      <c r="D111" s="15"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="14"/>
-      <c r="B112" s="15"/>
-      <c r="C112" s="26"/>
-      <c r="D112" s="15"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="14"/>
-      <c r="B113" s="15"/>
-      <c r="C113" s="26"/>
-      <c r="D113" s="15"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="14"/>
-      <c r="B114" s="15"/>
-      <c r="C114" s="26"/>
-      <c r="D114" s="15"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="14"/>
-      <c r="B115" s="15"/>
-      <c r="C115" s="26"/>
-      <c r="D115" s="15"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="14"/>
-      <c r="B116" s="15"/>
-      <c r="C116" s="26"/>
-      <c r="D116" s="15"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="14"/>
-      <c r="B117" s="15"/>
-      <c r="C117" s="26"/>
-      <c r="D117" s="15"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="14"/>
-      <c r="B118" s="15"/>
-      <c r="C118" s="26"/>
-      <c r="D118" s="15"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="14"/>
-      <c r="B119" s="15"/>
-      <c r="C119" s="26"/>
-      <c r="D119" s="15"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="14"/>
-      <c r="B120" s="15"/>
-      <c r="C120" s="26"/>
-      <c r="D120" s="15"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="14"/>
-      <c r="B121" s="15"/>
-      <c r="C121" s="26"/>
-      <c r="D121" s="15"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="14"/>
-      <c r="B122" s="15"/>
-      <c r="C122" s="26"/>
-      <c r="D122" s="15"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="14"/>
-      <c r="B123" s="15"/>
-      <c r="C123" s="26"/>
-      <c r="D123" s="15"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="14"/>
-      <c r="B124" s="15"/>
-      <c r="C124" s="26"/>
-      <c r="D124" s="15"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="14"/>
-      <c r="B125" s="15"/>
-      <c r="C125" s="26"/>
-      <c r="D125" s="15"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="14"/>
-      <c r="B126" s="15"/>
-      <c r="C126" s="26"/>
-      <c r="D126" s="15"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="14"/>
-      <c r="B127" s="15"/>
-      <c r="C127" s="26"/>
-      <c r="D127" s="15"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="14"/>
-      <c r="B128" s="15"/>
-      <c r="C128" s="26"/>
-      <c r="D128" s="15"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="14"/>
-      <c r="B129" s="15"/>
-      <c r="C129" s="26"/>
-      <c r="D129" s="15"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="14"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="26"/>
-      <c r="D130" s="15"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="14"/>
-      <c r="B131" s="15"/>
-      <c r="C131" s="26"/>
-      <c r="D131" s="15"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="14"/>
-      <c r="B132" s="15"/>
-      <c r="C132" s="26"/>
-      <c r="D132" s="15"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="14"/>
-      <c r="B133" s="15"/>
-      <c r="C133" s="26"/>
-      <c r="D133" s="15"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="14"/>
-      <c r="B134" s="15"/>
-      <c r="C134" s="26"/>
-      <c r="D134" s="15"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="14"/>
-      <c r="B135" s="15"/>
-      <c r="C135" s="26"/>
-      <c r="D135" s="15"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="14"/>
-      <c r="B136" s="15"/>
-      <c r="C136" s="26"/>
-      <c r="D136" s="15"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="14"/>
-      <c r="B137" s="15"/>
-      <c r="C137" s="26"/>
-      <c r="D137" s="15"/>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="14"/>
-      <c r="B138" s="15"/>
-      <c r="C138" s="26"/>
-      <c r="D138" s="15"/>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="14"/>
-      <c r="B139" s="15"/>
-      <c r="C139" s="26"/>
-      <c r="D139" s="15"/>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="14"/>
-      <c r="B140" s="15"/>
-      <c r="C140" s="26"/>
-      <c r="D140" s="15"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="14"/>
-      <c r="B141" s="15"/>
-      <c r="C141" s="26"/>
-      <c r="D141" s="15"/>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="14"/>
-      <c r="B142" s="15"/>
-      <c r="C142" s="26"/>
-      <c r="D142" s="15"/>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="14"/>
-      <c r="B143" s="15"/>
-      <c r="C143" s="26"/>
-      <c r="D143" s="15"/>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="14"/>
-      <c r="B144" s="15"/>
-      <c r="C144" s="26"/>
-      <c r="D144" s="15"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="14"/>
-      <c r="B145" s="15"/>
-      <c r="C145" s="26"/>
-      <c r="D145" s="15"/>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="14"/>
-      <c r="B146" s="15"/>
-      <c r="C146" s="26"/>
-      <c r="D146" s="15"/>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="14"/>
-      <c r="B147" s="15"/>
-      <c r="C147" s="26"/>
-      <c r="D147" s="15"/>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="14"/>
-      <c r="B148" s="15"/>
-      <c r="C148" s="26"/>
-      <c r="D148" s="15"/>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="14"/>
-      <c r="B149" s="15"/>
-      <c r="C149" s="26"/>
-      <c r="D149" s="15"/>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="14"/>
-      <c r="B150" s="15"/>
-      <c r="C150" s="26"/>
-      <c r="D150" s="15"/>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="14"/>
-      <c r="B151" s="15"/>
-      <c r="C151" s="26"/>
-      <c r="D151" s="15"/>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="14"/>
-      <c r="B152" s="15"/>
-      <c r="C152" s="26"/>
-      <c r="D152" s="15"/>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="14"/>
-      <c r="B153" s="15"/>
-      <c r="C153" s="26"/>
-      <c r="D153" s="15"/>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="14"/>
-      <c r="B154" s="15"/>
-      <c r="C154" s="26"/>
-      <c r="D154" s="15"/>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="14"/>
-      <c r="B155" s="15"/>
-      <c r="C155" s="26"/>
-      <c r="D155" s="15"/>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="14"/>
-      <c r="B156" s="15"/>
-      <c r="C156" s="26"/>
-      <c r="D156" s="15"/>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="14"/>
-      <c r="B157" s="15"/>
-      <c r="C157" s="26"/>
-      <c r="D157" s="15"/>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="14"/>
-      <c r="B158" s="15"/>
-      <c r="C158" s="26"/>
-      <c r="D158" s="15"/>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="14"/>
-      <c r="B159" s="15"/>
-      <c r="C159" s="26"/>
-      <c r="D159" s="15"/>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="14"/>
-      <c r="B160" s="15"/>
-      <c r="C160" s="26"/>
-      <c r="D160" s="15"/>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="14"/>
-      <c r="B161" s="15"/>
-      <c r="C161" s="26"/>
-      <c r="D161" s="15"/>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="14"/>
-      <c r="B162" s="15"/>
-      <c r="C162" s="26"/>
-      <c r="D162" s="15"/>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="14"/>
-      <c r="B163" s="15"/>
-      <c r="C163" s="26"/>
-      <c r="D163" s="15"/>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="14"/>
-      <c r="B164" s="15"/>
-      <c r="C164" s="26"/>
-      <c r="D164" s="15"/>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="14"/>
-      <c r="B165" s="15"/>
-      <c r="C165" s="26"/>
-      <c r="D165" s="15"/>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="14"/>
-      <c r="B166" s="15"/>
-      <c r="C166" s="26"/>
-      <c r="D166" s="15"/>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="14"/>
-      <c r="B167" s="15"/>
-      <c r="C167" s="26"/>
-      <c r="D167" s="15"/>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="14"/>
-      <c r="B168" s="15"/>
-      <c r="C168" s="26"/>
-      <c r="D168" s="15"/>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="14"/>
-      <c r="B169" s="15"/>
-      <c r="C169" s="26"/>
-      <c r="D169" s="15"/>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="14"/>
-      <c r="B170" s="15"/>
-      <c r="C170" s="26"/>
-      <c r="D170" s="15"/>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="14"/>
-      <c r="B171" s="15"/>
-      <c r="C171" s="26"/>
-      <c r="D171" s="15"/>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="14"/>
-      <c r="B172" s="15"/>
-      <c r="C172" s="26"/>
-      <c r="D172" s="15"/>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="14"/>
-      <c r="B173" s="15"/>
-      <c r="C173" s="26"/>
-      <c r="D173" s="15"/>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="14"/>
-      <c r="B174" s="15"/>
-      <c r="C174" s="26"/>
-      <c r="D174" s="15"/>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="14"/>
-      <c r="B175" s="15"/>
-      <c r="C175" s="26"/>
-      <c r="D175" s="15"/>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="14"/>
-      <c r="B176" s="15"/>
-      <c r="C176" s="26"/>
-      <c r="D176" s="15"/>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="14"/>
-      <c r="B177" s="15"/>
-      <c r="C177" s="26"/>
-      <c r="D177" s="15"/>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="14"/>
-      <c r="B178" s="15"/>
-      <c r="C178" s="26"/>
-      <c r="D178" s="15"/>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="14"/>
-      <c r="B179" s="15"/>
-      <c r="C179" s="26"/>
-      <c r="D179" s="15"/>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="14"/>
-      <c r="B180" s="15"/>
-      <c r="C180" s="26"/>
-      <c r="D180" s="15"/>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="14"/>
-      <c r="B181" s="15"/>
-      <c r="C181" s="26"/>
-      <c r="D181" s="15"/>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="14"/>
-      <c r="B182" s="15"/>
-      <c r="C182" s="26"/>
-      <c r="D182" s="15"/>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="14"/>
-      <c r="B183" s="15"/>
-      <c r="C183" s="26"/>
-      <c r="D183" s="15"/>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="14"/>
-      <c r="B184" s="15"/>
-      <c r="C184" s="26"/>
-      <c r="D184" s="15"/>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="14"/>
-      <c r="B185" s="15"/>
-      <c r="C185" s="26"/>
-      <c r="D185" s="15"/>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="14"/>
-      <c r="B186" s="15"/>
-      <c r="C186" s="26"/>
-      <c r="D186" s="15"/>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="14"/>
-      <c r="B187" s="15"/>
-      <c r="C187" s="26"/>
-      <c r="D187" s="15"/>
-    </row>
   </sheetData>
-  <autoFilter ref="C1:D109" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:D56">
-      <sortCondition ref="C1"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -8077,17 +7586,17 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:D213"/>
+  <dimension ref="A1:D188"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="111" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView topLeftCell="A173" zoomScale="111" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="D182" sqref="D182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="70.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8098,7 +7607,7 @@
       <c r="B1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="19" t="s">
         <v>69</v>
       </c>
       <c r="D1" s="10" t="s">
@@ -8112,7 +7621,7 @@
       <c r="B2" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="20">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="str">
@@ -8127,7 +7636,7 @@
       <c r="B3" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="20">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="str">
@@ -8142,7 +7651,7 @@
       <c r="B4" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="20">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="str">
@@ -8157,7 +7666,7 @@
       <c r="B5" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="20">
         <v>1</v>
       </c>
       <c r="D5" s="3" t="str">
@@ -8172,7 +7681,7 @@
       <c r="B6" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="20">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="str">
@@ -8187,7 +7696,7 @@
       <c r="B7" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="20">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="str">
@@ -8202,7 +7711,7 @@
       <c r="B8" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="20">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="str">
@@ -8217,7 +7726,7 @@
       <c r="B9" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="20">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="str">
@@ -8232,7 +7741,7 @@
       <c r="B10" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="20">
         <v>3</v>
       </c>
       <c r="D10" s="3" t="str">
@@ -8247,7 +7756,7 @@
       <c r="B11" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="20">
         <v>3</v>
       </c>
       <c r="D11" s="3" t="str">
@@ -8262,7 +7771,7 @@
       <c r="B12" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="20">
         <v>3</v>
       </c>
       <c r="D12" s="3" t="str">
@@ -8277,7 +7786,7 @@
       <c r="B13" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="20">
         <v>4</v>
       </c>
       <c r="D13" s="3" t="str">
@@ -8292,7 +7801,7 @@
       <c r="B14" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="20">
         <v>4</v>
       </c>
       <c r="D14" s="3" t="str">
@@ -8307,7 +7816,7 @@
       <c r="B15" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="20">
         <v>5</v>
       </c>
       <c r="D15" s="3" t="str">
@@ -8322,7 +7831,7 @@
       <c r="B16" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="20">
         <v>5</v>
       </c>
       <c r="D16" s="3" t="str">
@@ -8337,7 +7846,7 @@
       <c r="B17" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="20">
         <v>5</v>
       </c>
       <c r="D17" s="3" t="str">
@@ -8352,7 +7861,7 @@
       <c r="B18" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="20">
         <v>5</v>
       </c>
       <c r="D18" s="3" t="str">
@@ -8367,7 +7876,7 @@
       <c r="B19" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="20">
         <v>5</v>
       </c>
       <c r="D19" s="3" t="str">
@@ -8382,7 +7891,7 @@
       <c r="B20" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="20">
         <v>5</v>
       </c>
       <c r="D20" s="3" t="str">
@@ -8397,7 +7906,7 @@
       <c r="B21" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="20">
         <v>6</v>
       </c>
       <c r="D21" s="3" t="str">
@@ -8412,7 +7921,7 @@
       <c r="B22" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="20">
         <v>6</v>
       </c>
       <c r="D22" s="3" t="str">
@@ -8427,7 +7936,7 @@
       <c r="B23" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="20">
         <v>7</v>
       </c>
       <c r="D23" s="3" t="str">
@@ -8442,7 +7951,7 @@
       <c r="B24" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="20">
         <v>7</v>
       </c>
       <c r="D24" s="3" t="str">
@@ -8457,7 +7966,7 @@
       <c r="B25" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="20">
         <v>7</v>
       </c>
       <c r="D25" s="3" t="str">
@@ -8472,7 +7981,7 @@
       <c r="B26" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="20">
         <v>7</v>
       </c>
       <c r="D26" s="3" t="str">
@@ -8487,7 +7996,7 @@
       <c r="B27" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="20">
         <v>8</v>
       </c>
       <c r="D27" s="3" t="str">
@@ -8502,7 +8011,7 @@
       <c r="B28" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="20">
         <v>9</v>
       </c>
       <c r="D28" s="3" t="str">
@@ -8517,7 +8026,7 @@
       <c r="B29" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="20">
         <v>9</v>
       </c>
       <c r="D29" s="3" t="str">
@@ -8532,7 +8041,7 @@
       <c r="B30" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="20">
         <v>9</v>
       </c>
       <c r="D30" s="3" t="str">
@@ -8547,7 +8056,7 @@
       <c r="B31" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="20">
         <v>9</v>
       </c>
       <c r="D31" s="3" t="str">
@@ -8562,7 +8071,7 @@
       <c r="B32" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="C32" s="23">
+      <c r="C32" s="20">
         <v>10</v>
       </c>
       <c r="D32" s="3" t="str">
@@ -8577,7 +8086,7 @@
       <c r="B33" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="C33" s="23">
+      <c r="C33" s="20">
         <v>11</v>
       </c>
       <c r="D33" s="3" t="str">
@@ -8592,7 +8101,7 @@
       <c r="B34" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="C34" s="23">
+      <c r="C34" s="20">
         <v>11</v>
       </c>
       <c r="D34" s="3" t="str">
@@ -8607,7 +8116,7 @@
       <c r="B35" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="C35" s="23">
+      <c r="C35" s="20">
         <v>11</v>
       </c>
       <c r="D35" s="3" t="str">
@@ -8622,7 +8131,7 @@
       <c r="B36" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="C36" s="23">
+      <c r="C36" s="20">
         <v>11</v>
       </c>
       <c r="D36" s="3" t="str">
@@ -8637,7 +8146,7 @@
       <c r="B37" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="C37" s="23">
+      <c r="C37" s="20">
         <v>12</v>
       </c>
       <c r="D37" s="3" t="str">
@@ -8652,7 +8161,7 @@
       <c r="B38" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="C38" s="23">
+      <c r="C38" s="20">
         <v>12</v>
       </c>
       <c r="D38" s="3" t="str">
@@ -8667,7 +8176,7 @@
       <c r="B39" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="C39" s="23">
+      <c r="C39" s="20">
         <v>12</v>
       </c>
       <c r="D39" s="3" t="str">
@@ -8682,7 +8191,7 @@
       <c r="B40" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="C40" s="23">
+      <c r="C40" s="20">
         <v>12</v>
       </c>
       <c r="D40" s="3" t="str">
@@ -8697,7 +8206,7 @@
       <c r="B41" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="C41" s="23">
+      <c r="C41" s="20">
         <v>12</v>
       </c>
       <c r="D41" s="3" t="str">
@@ -8712,7 +8221,7 @@
       <c r="B42" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="C42" s="23">
+      <c r="C42" s="20">
         <v>13</v>
       </c>
       <c r="D42" s="3" t="str">
@@ -8727,7 +8236,7 @@
       <c r="B43" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="C43" s="23">
+      <c r="C43" s="20">
         <v>13</v>
       </c>
       <c r="D43" s="3" t="str">
@@ -8742,7 +8251,7 @@
       <c r="B44" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="C44" s="23">
+      <c r="C44" s="20">
         <v>13</v>
       </c>
       <c r="D44" s="3" t="str">
@@ -8757,7 +8266,7 @@
       <c r="B45" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="C45" s="23">
+      <c r="C45" s="20">
         <v>14</v>
       </c>
       <c r="D45" s="3" t="str">
@@ -8772,7 +8281,7 @@
       <c r="B46" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="C46" s="23">
+      <c r="C46" s="20">
         <v>14</v>
       </c>
       <c r="D46" s="3" t="str">
@@ -8787,7 +8296,7 @@
       <c r="B47" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="C47" s="23">
+      <c r="C47" s="20">
         <v>15</v>
       </c>
       <c r="D47" s="3" t="str">
@@ -8802,7 +8311,7 @@
       <c r="B48" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="C48" s="23">
+      <c r="C48" s="20">
         <v>15</v>
       </c>
       <c r="D48" s="3" t="str">
@@ -8817,7 +8326,7 @@
       <c r="B49" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="C49" s="23">
+      <c r="C49" s="20">
         <v>15</v>
       </c>
       <c r="D49" s="3" t="str">
@@ -8832,7 +8341,7 @@
       <c r="B50" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="C50" s="23">
+      <c r="C50" s="20">
         <v>15</v>
       </c>
       <c r="D50" s="3" t="str">
@@ -8847,7 +8356,7 @@
       <c r="B51" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="C51" s="23">
+      <c r="C51" s="20">
         <v>15</v>
       </c>
       <c r="D51" s="3" t="str">
@@ -8862,7 +8371,7 @@
       <c r="B52" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="C52" s="23">
+      <c r="C52" s="20">
         <v>15</v>
       </c>
       <c r="D52" s="3" t="str">
@@ -8877,7 +8386,7 @@
       <c r="B53" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="C53" s="23">
+      <c r="C53" s="20">
         <v>16</v>
       </c>
       <c r="D53" s="3" t="str">
@@ -8892,7 +8401,7 @@
       <c r="B54" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="C54" s="23">
+      <c r="C54" s="20">
         <v>16</v>
       </c>
       <c r="D54" s="3" t="str">
@@ -8907,7 +8416,7 @@
       <c r="B55" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="C55" s="23">
+      <c r="C55" s="20">
         <v>16</v>
       </c>
       <c r="D55" s="3" t="str">
@@ -8922,7 +8431,7 @@
       <c r="B56" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="C56" s="23">
+      <c r="C56" s="20">
         <v>17</v>
       </c>
       <c r="D56" s="3" t="str">
@@ -8937,7 +8446,7 @@
       <c r="B57" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="C57" s="23">
+      <c r="C57" s="20">
         <v>18</v>
       </c>
       <c r="D57" s="3" t="str">
@@ -8952,7 +8461,7 @@
       <c r="B58" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="C58" s="23">
+      <c r="C58" s="20">
         <v>18</v>
       </c>
       <c r="D58" s="3" t="str">
@@ -8967,7 +8476,7 @@
       <c r="B59" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="C59" s="23">
+      <c r="C59" s="20">
         <v>19</v>
       </c>
       <c r="D59" s="3" t="str">
@@ -8982,7 +8491,7 @@
       <c r="B60" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="C60" s="23">
+      <c r="C60" s="20">
         <v>19</v>
       </c>
       <c r="D60" s="3" t="str">
@@ -8997,7 +8506,7 @@
       <c r="B61" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="C61" s="23">
+      <c r="C61" s="20">
         <v>19</v>
       </c>
       <c r="D61" s="3" t="str">
@@ -9012,7 +8521,7 @@
       <c r="B62" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="C62" s="23">
+      <c r="C62" s="20">
         <v>19</v>
       </c>
       <c r="D62" s="3" t="str">
@@ -9027,7 +8536,7 @@
       <c r="B63" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="C63" s="23">
+      <c r="C63" s="20">
         <v>19</v>
       </c>
       <c r="D63" s="3" t="str">
@@ -9042,7 +8551,7 @@
       <c r="B64" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="C64" s="23">
+      <c r="C64" s="20">
         <v>20</v>
       </c>
       <c r="D64" s="3" t="str">
@@ -9057,7 +8566,7 @@
       <c r="B65" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="C65" s="23">
+      <c r="C65" s="20">
         <v>20</v>
       </c>
       <c r="D65" s="3" t="str">
@@ -9072,7 +8581,7 @@
       <c r="B66" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="C66" s="23">
+      <c r="C66" s="20">
         <v>21</v>
       </c>
       <c r="D66" s="3" t="str">
@@ -9087,7 +8596,7 @@
       <c r="B67" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="C67" s="23">
+      <c r="C67" s="20">
         <v>21</v>
       </c>
       <c r="D67" s="3" t="str">
@@ -9102,7 +8611,7 @@
       <c r="B68" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="C68" s="23">
+      <c r="C68" s="20">
         <v>21</v>
       </c>
       <c r="D68" s="3" t="str">
@@ -9117,7 +8626,7 @@
       <c r="B69" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="C69" s="23">
+      <c r="C69" s="20">
         <v>22</v>
       </c>
       <c r="D69" s="3" t="str">
@@ -9132,7 +8641,7 @@
       <c r="B70" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="C70" s="23">
+      <c r="C70" s="20">
         <v>22</v>
       </c>
       <c r="D70" s="3" t="str">
@@ -9147,7 +8656,7 @@
       <c r="B71" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="C71" s="23">
+      <c r="C71" s="20">
         <v>23</v>
       </c>
       <c r="D71" s="3" t="str">
@@ -9162,7 +8671,7 @@
       <c r="B72" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="C72" s="23">
+      <c r="C72" s="20">
         <v>23</v>
       </c>
       <c r="D72" s="3" t="str">
@@ -9177,7 +8686,7 @@
       <c r="B73" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="C73" s="23">
+      <c r="C73" s="20">
         <v>23</v>
       </c>
       <c r="D73" s="3" t="str">
@@ -9192,7 +8701,7 @@
       <c r="B74" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="C74" s="23">
+      <c r="C74" s="20">
         <v>24</v>
       </c>
       <c r="D74" s="3" t="str">
@@ -9207,7 +8716,7 @@
       <c r="B75" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="C75" s="23">
+      <c r="C75" s="20">
         <v>24</v>
       </c>
       <c r="D75" s="3" t="str">
@@ -9222,7 +8731,7 @@
       <c r="B76" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="C76" s="23">
+      <c r="C76" s="20">
         <v>24</v>
       </c>
       <c r="D76" s="3" t="str">
@@ -9237,7 +8746,7 @@
       <c r="B77" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="C77" s="23">
+      <c r="C77" s="20">
         <v>24</v>
       </c>
       <c r="D77" s="3" t="str">
@@ -9252,7 +8761,7 @@
       <c r="B78" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="C78" s="23">
+      <c r="C78" s="20">
         <v>24</v>
       </c>
       <c r="D78" s="3" t="str">
@@ -9267,7 +8776,7 @@
       <c r="B79" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="C79" s="23">
+      <c r="C79" s="20">
         <v>25</v>
       </c>
       <c r="D79" s="3" t="str">
@@ -9282,7 +8791,7 @@
       <c r="B80" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="C80" s="23">
+      <c r="C80" s="20">
         <v>25</v>
       </c>
       <c r="D80" s="3" t="str">
@@ -9297,7 +8806,7 @@
       <c r="B81" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="C81" s="23">
+      <c r="C81" s="20">
         <v>25</v>
       </c>
       <c r="D81" s="3" t="str">
@@ -9312,7 +8821,7 @@
       <c r="B82" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="C82" s="23">
+      <c r="C82" s="20">
         <v>25</v>
       </c>
       <c r="D82" s="3" t="str">
@@ -9327,7 +8836,7 @@
       <c r="B83" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="C83" s="23">
+      <c r="C83" s="20">
         <v>26</v>
       </c>
       <c r="D83" s="3" t="str">
@@ -9342,7 +8851,7 @@
       <c r="B84" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="C84" s="23">
+      <c r="C84" s="20">
         <v>26</v>
       </c>
       <c r="D84" s="3" t="str">
@@ -9357,7 +8866,7 @@
       <c r="B85" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="C85" s="23">
+      <c r="C85" s="20">
         <v>27</v>
       </c>
       <c r="D85" s="3" t="str">
@@ -9372,7 +8881,7 @@
       <c r="B86" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="C86" s="23">
+      <c r="C86" s="20">
         <v>27</v>
       </c>
       <c r="D86" s="3" t="str">
@@ -9387,7 +8896,7 @@
       <c r="B87" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="C87" s="23">
+      <c r="C87" s="20">
         <v>27</v>
       </c>
       <c r="D87" s="3" t="str">
@@ -9402,7 +8911,7 @@
       <c r="B88" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="C88" s="23">
+      <c r="C88" s="20">
         <v>27</v>
       </c>
       <c r="D88" s="3" t="str">
@@ -9417,7 +8926,7 @@
       <c r="B89" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="C89" s="23">
+      <c r="C89" s="20">
         <v>27</v>
       </c>
       <c r="D89" s="3" t="str">
@@ -9432,7 +8941,7 @@
       <c r="B90" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="C90" s="23">
+      <c r="C90" s="20">
         <v>27</v>
       </c>
       <c r="D90" s="3" t="str">
@@ -9447,7 +8956,7 @@
       <c r="B91" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="C91" s="23">
+      <c r="C91" s="20">
         <v>27</v>
       </c>
       <c r="D91" s="3" t="str">
@@ -9462,7 +8971,7 @@
       <c r="B92" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="C92" s="23">
+      <c r="C92" s="20">
         <v>27</v>
       </c>
       <c r="D92" s="3" t="str">
@@ -9477,7 +8986,7 @@
       <c r="B93" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="C93" s="23">
+      <c r="C93" s="20">
         <v>28</v>
       </c>
       <c r="D93" s="3" t="str">
@@ -9492,7 +9001,7 @@
       <c r="B94" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="C94" s="23">
+      <c r="C94" s="20">
         <v>28</v>
       </c>
       <c r="D94" s="3" t="str">
@@ -9507,7 +9016,7 @@
       <c r="B95" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="C95" s="23">
+      <c r="C95" s="20">
         <v>28</v>
       </c>
       <c r="D95" s="3" t="str">
@@ -9522,7 +9031,7 @@
       <c r="B96" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="C96" s="23">
+      <c r="C96" s="20">
         <v>28</v>
       </c>
       <c r="D96" s="3" t="str">
@@ -9537,7 +9046,7 @@
       <c r="B97" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="C97" s="23">
+      <c r="C97" s="20">
         <v>29</v>
       </c>
       <c r="D97" s="3" t="str">
@@ -9552,7 +9061,7 @@
       <c r="B98" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="C98" s="23">
+      <c r="C98" s="20">
         <v>29</v>
       </c>
       <c r="D98" s="3" t="str">
@@ -9567,7 +9076,7 @@
       <c r="B99" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="C99" s="23">
+      <c r="C99" s="20">
         <v>29</v>
       </c>
       <c r="D99" s="3" t="str">
@@ -9582,7 +9091,7 @@
       <c r="B100" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="C100" s="23">
+      <c r="C100" s="20">
         <v>29</v>
       </c>
       <c r="D100" s="3" t="str">
@@ -9597,7 +9106,7 @@
       <c r="B101" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="C101" s="23">
+      <c r="C101" s="20">
         <v>29</v>
       </c>
       <c r="D101" s="3" t="str">
@@ -9612,7 +9121,7 @@
       <c r="B102" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="C102" s="23">
+      <c r="C102" s="20">
         <v>32</v>
       </c>
       <c r="D102" s="3" t="str">
@@ -9627,7 +9136,7 @@
       <c r="B103" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="C103" s="23">
+      <c r="C103" s="20">
         <v>33</v>
       </c>
       <c r="D103" s="3" t="str">
@@ -9642,7 +9151,7 @@
       <c r="B104" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="C104" s="23">
+      <c r="C104" s="20">
         <v>34</v>
       </c>
       <c r="D104" s="3" t="str">
@@ -9657,7 +9166,7 @@
       <c r="B105" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="C105" s="23">
+      <c r="C105" s="20">
         <v>35</v>
       </c>
       <c r="D105" s="3" t="str">
@@ -9672,7 +9181,7 @@
       <c r="B106" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="C106" s="23">
+      <c r="C106" s="20">
         <v>35</v>
       </c>
       <c r="D106" s="3" t="str">
@@ -9687,7 +9196,7 @@
       <c r="B107" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="C107" s="23">
+      <c r="C107" s="20">
         <v>35</v>
       </c>
       <c r="D107" s="3" t="str">
@@ -9702,7 +9211,7 @@
       <c r="B108" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="C108" s="23">
+      <c r="C108" s="20">
         <v>35</v>
       </c>
       <c r="D108" s="3" t="str">
@@ -9717,7 +9226,7 @@
       <c r="B109" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="C109" s="23">
+      <c r="C109" s="20">
         <v>35</v>
       </c>
       <c r="D109" s="3" t="str">
@@ -9732,7 +9241,7 @@
       <c r="B110" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="C110" s="23">
+      <c r="C110" s="20">
         <v>35</v>
       </c>
       <c r="D110" s="3" t="str">
@@ -9747,7 +9256,7 @@
       <c r="B111" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="C111" s="23">
+      <c r="C111" s="20">
         <v>35</v>
       </c>
       <c r="D111" s="3" t="str">
@@ -9762,7 +9271,7 @@
       <c r="B112" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="C112" s="23">
+      <c r="C112" s="20">
         <v>35</v>
       </c>
       <c r="D112" s="3" t="str">
@@ -9777,7 +9286,7 @@
       <c r="B113" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="C113" s="23">
+      <c r="C113" s="20">
         <v>35</v>
       </c>
       <c r="D113" s="3" t="str">
@@ -9792,7 +9301,7 @@
       <c r="B114" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="C114" s="23">
+      <c r="C114" s="20">
         <v>35</v>
       </c>
       <c r="D114" s="3" t="str">
@@ -9807,7 +9316,7 @@
       <c r="B115" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="C115" s="23">
+      <c r="C115" s="20">
         <v>36</v>
       </c>
       <c r="D115" s="3" t="str">
@@ -9822,7 +9331,7 @@
       <c r="B116" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="C116" s="23">
+      <c r="C116" s="20">
         <v>36</v>
       </c>
       <c r="D116" s="3" t="str">
@@ -9837,7 +9346,7 @@
       <c r="B117" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="C117" s="23">
+      <c r="C117" s="20">
         <v>37</v>
       </c>
       <c r="D117" s="3" t="str">
@@ -9852,7 +9361,7 @@
       <c r="B118" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="C118" s="23">
+      <c r="C118" s="20">
         <v>37</v>
       </c>
       <c r="D118" s="3" t="str">
@@ -9867,7 +9376,7 @@
       <c r="B119" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="C119" s="23">
+      <c r="C119" s="20">
         <v>38</v>
       </c>
       <c r="D119" s="3" t="str">
@@ -9882,7 +9391,7 @@
       <c r="B120" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="C120" s="23">
+      <c r="C120" s="20">
         <v>38</v>
       </c>
       <c r="D120" s="3" t="str">
@@ -9897,7 +9406,7 @@
       <c r="B121" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="C121" s="23">
+      <c r="C121" s="20">
         <v>38</v>
       </c>
       <c r="D121" s="3" t="str">
@@ -9912,7 +9421,7 @@
       <c r="B122" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="C122" s="23">
+      <c r="C122" s="20">
         <v>38</v>
       </c>
       <c r="D122" s="3" t="str">
@@ -9927,7 +9436,7 @@
       <c r="B123" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="C123" s="23">
+      <c r="C123" s="20">
         <v>38</v>
       </c>
       <c r="D123" s="3" t="str">
@@ -9942,7 +9451,7 @@
       <c r="B124" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="C124" s="23">
+      <c r="C124" s="20">
         <v>38</v>
       </c>
       <c r="D124" s="3" t="str">
@@ -9957,7 +9466,7 @@
       <c r="B125" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="C125" s="23">
+      <c r="C125" s="20">
         <v>38</v>
       </c>
       <c r="D125" s="3" t="str">
@@ -9972,7 +9481,7 @@
       <c r="B126" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="C126" s="23">
+      <c r="C126" s="20">
         <v>38</v>
       </c>
       <c r="D126" s="3" t="str">
@@ -9987,7 +9496,7 @@
       <c r="B127" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="C127" s="23">
+      <c r="C127" s="20">
         <v>38</v>
       </c>
       <c r="D127" s="3" t="str">
@@ -10002,7 +9511,7 @@
       <c r="B128" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="C128" s="23">
+      <c r="C128" s="20">
         <v>38</v>
       </c>
       <c r="D128" s="3" t="str">
@@ -10017,7 +9526,7 @@
       <c r="B129" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="C129" s="23">
+      <c r="C129" s="20">
         <v>39</v>
       </c>
       <c r="D129" s="3" t="str">
@@ -10032,7 +9541,7 @@
       <c r="B130" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="C130" s="23">
+      <c r="C130" s="20">
         <v>39</v>
       </c>
       <c r="D130" s="3" t="str">
@@ -10047,7 +9556,7 @@
       <c r="B131" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="C131" s="23">
+      <c r="C131" s="20">
         <v>39</v>
       </c>
       <c r="D131" s="3" t="str">
@@ -10062,7 +9571,7 @@
       <c r="B132" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="C132" s="23">
+      <c r="C132" s="20">
         <v>40</v>
       </c>
       <c r="D132" s="3" t="str">
@@ -10077,7 +9586,7 @@
       <c r="B133" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="C133" s="23">
+      <c r="C133" s="20">
         <v>41</v>
       </c>
       <c r="D133" s="3" t="str">
@@ -10092,7 +9601,7 @@
       <c r="B134" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="C134" s="23">
+      <c r="C134" s="20">
         <v>41</v>
       </c>
       <c r="D134" s="3" t="str">
@@ -10107,7 +9616,7 @@
       <c r="B135" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="C135" s="23">
+      <c r="C135" s="20">
         <v>41</v>
       </c>
       <c r="D135" s="3" t="str">
@@ -10122,7 +9631,7 @@
       <c r="B136" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="C136" s="23">
+      <c r="C136" s="20">
         <v>41</v>
       </c>
       <c r="D136" s="3" t="str">
@@ -10137,7 +9646,7 @@
       <c r="B137" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="C137" s="23">
+      <c r="C137" s="20">
         <v>41</v>
       </c>
       <c r="D137" s="3" t="str">
@@ -10152,7 +9661,7 @@
       <c r="B138" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="C138" s="23">
+      <c r="C138" s="20">
         <v>42</v>
       </c>
       <c r="D138" s="3" t="str">
@@ -10167,7 +9676,7 @@
       <c r="B139" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="C139" s="23">
+      <c r="C139" s="20">
         <v>42</v>
       </c>
       <c r="D139" s="3" t="str">
@@ -10182,7 +9691,7 @@
       <c r="B140" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="C140" s="23">
+      <c r="C140" s="20">
         <v>42</v>
       </c>
       <c r="D140" s="3" t="str">
@@ -10197,7 +9706,7 @@
       <c r="B141" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="C141" s="23">
+      <c r="C141" s="20">
         <v>42</v>
       </c>
       <c r="D141" s="3" t="str">
@@ -10212,7 +9721,7 @@
       <c r="B142" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="C142" s="23">
+      <c r="C142" s="20">
         <v>42</v>
       </c>
       <c r="D142" s="3" t="str">
@@ -10227,7 +9736,7 @@
       <c r="B143" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="C143" s="23">
+      <c r="C143" s="20">
         <v>43</v>
       </c>
       <c r="D143" s="3" t="str">
@@ -10242,7 +9751,7 @@
       <c r="B144" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="C144" s="23">
+      <c r="C144" s="20">
         <v>43</v>
       </c>
       <c r="D144" s="3" t="str">
@@ -10257,7 +9766,7 @@
       <c r="B145" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="C145" s="23">
+      <c r="C145" s="20">
         <v>43</v>
       </c>
       <c r="D145" s="3" t="str">
@@ -10272,7 +9781,7 @@
       <c r="B146" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="C146" s="23">
+      <c r="C146" s="20">
         <v>44</v>
       </c>
       <c r="D146" s="3" t="str">
@@ -10287,7 +9796,7 @@
       <c r="B147" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="C147" s="23">
+      <c r="C147" s="20">
         <v>44</v>
       </c>
       <c r="D147" s="3" t="str">
@@ -10302,7 +9811,7 @@
       <c r="B148" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="C148" s="23">
+      <c r="C148" s="20">
         <v>44</v>
       </c>
       <c r="D148" s="3" t="str">
@@ -10317,7 +9826,7 @@
       <c r="B149" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="C149" s="23">
+      <c r="C149" s="20">
         <v>44</v>
       </c>
       <c r="D149" s="3" t="str">
@@ -10332,7 +9841,7 @@
       <c r="B150" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="C150" s="23">
+      <c r="C150" s="20">
         <v>45</v>
       </c>
       <c r="D150" s="3" t="str">
@@ -10347,7 +9856,7 @@
       <c r="B151" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="C151" s="23">
+      <c r="C151" s="20">
         <v>45</v>
       </c>
       <c r="D151" s="3" t="str">
@@ -10362,7 +9871,7 @@
       <c r="B152" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="C152" s="23">
+      <c r="C152" s="20">
         <v>45</v>
       </c>
       <c r="D152" s="3" t="str">
@@ -10377,7 +9886,7 @@
       <c r="B153" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="C153" s="23">
+      <c r="C153" s="20">
         <v>45</v>
       </c>
       <c r="D153" s="3" t="str">
@@ -10392,7 +9901,7 @@
       <c r="B154" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="C154" s="23">
+      <c r="C154" s="20">
         <v>46</v>
       </c>
       <c r="D154" s="3" t="str">
@@ -10407,7 +9916,7 @@
       <c r="B155" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="C155" s="23">
+      <c r="C155" s="20">
         <v>46</v>
       </c>
       <c r="D155" s="3" t="str">
@@ -10422,7 +9931,7 @@
       <c r="B156" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="C156" s="23">
+      <c r="C156" s="20">
         <v>46</v>
       </c>
       <c r="D156" s="3" t="str">
@@ -10437,7 +9946,7 @@
       <c r="B157" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="C157" s="23">
+      <c r="C157" s="20">
         <v>46</v>
       </c>
       <c r="D157" s="3" t="str">
@@ -10452,7 +9961,7 @@
       <c r="B158" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="C158" s="23">
+      <c r="C158" s="20">
         <v>47</v>
       </c>
       <c r="D158" s="3" t="str">
@@ -10467,7 +9976,7 @@
       <c r="B159" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="C159" s="23">
+      <c r="C159" s="20">
         <v>47</v>
       </c>
       <c r="D159" s="3" t="str">
@@ -10482,7 +9991,7 @@
       <c r="B160" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="C160" s="23">
+      <c r="C160" s="20">
         <v>47</v>
       </c>
       <c r="D160" s="3" t="str">
@@ -10497,7 +10006,7 @@
       <c r="B161" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="C161" s="23">
+      <c r="C161" s="20">
         <v>48</v>
       </c>
       <c r="D161" s="3" t="str">
@@ -10512,7 +10021,7 @@
       <c r="B162" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="C162" s="23">
+      <c r="C162" s="20">
         <v>49</v>
       </c>
       <c r="D162" s="3" t="str">
@@ -10527,7 +10036,7 @@
       <c r="B163" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="C163" s="23">
+      <c r="C163" s="20">
         <v>49</v>
       </c>
       <c r="D163" s="3" t="str">
@@ -10542,7 +10051,7 @@
       <c r="B164" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="C164" s="23">
+      <c r="C164" s="20">
         <v>49</v>
       </c>
       <c r="D164" s="3" t="str">
@@ -10557,7 +10066,7 @@
       <c r="B165" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="C165" s="23">
+      <c r="C165" s="20">
         <v>50</v>
       </c>
       <c r="D165" s="3" t="str">
@@ -10572,7 +10081,7 @@
       <c r="B166" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="C166" s="23">
+      <c r="C166" s="20">
         <v>50</v>
       </c>
       <c r="D166" s="3" t="str">
@@ -10587,7 +10096,7 @@
       <c r="B167" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="C167" s="23">
+      <c r="C167" s="20">
         <v>50</v>
       </c>
       <c r="D167" s="3" t="str">
@@ -10602,7 +10111,7 @@
       <c r="B168" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="C168" s="23">
+      <c r="C168" s="20">
         <v>50</v>
       </c>
       <c r="D168" s="3" t="str">
@@ -10617,7 +10126,7 @@
       <c r="B169" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="C169" s="23">
+      <c r="C169" s="20">
         <v>51</v>
       </c>
       <c r="D169" s="3" t="str">
@@ -10632,7 +10141,7 @@
       <c r="B170" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="C170" s="23">
+      <c r="C170" s="20">
         <v>51</v>
       </c>
       <c r="D170" s="3" t="str">
@@ -10647,7 +10156,7 @@
       <c r="B171" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="C171" s="23">
+      <c r="C171" s="20">
         <v>51</v>
       </c>
       <c r="D171" s="3" t="str">
@@ -10662,7 +10171,7 @@
       <c r="B172" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="C172" s="23">
+      <c r="C172" s="20">
         <v>51</v>
       </c>
       <c r="D172" s="3" t="str">
@@ -10677,7 +10186,7 @@
       <c r="B173" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="C173" s="23">
+      <c r="C173" s="20">
         <v>51</v>
       </c>
       <c r="D173" s="3" t="str">
@@ -10692,7 +10201,7 @@
       <c r="B174" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="C174" s="23">
+      <c r="C174" s="20">
         <v>51</v>
       </c>
       <c r="D174" s="3" t="str">
@@ -10707,7 +10216,7 @@
       <c r="B175" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="C175" s="23">
+      <c r="C175" s="20">
         <v>52</v>
       </c>
       <c r="D175" s="3" t="str">
@@ -10722,7 +10231,7 @@
       <c r="B176" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="C176" s="23">
+      <c r="C176" s="20">
         <v>52</v>
       </c>
       <c r="D176" s="3" t="str">
@@ -10737,7 +10246,7 @@
       <c r="B177" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="C177" s="23">
+      <c r="C177" s="20">
         <v>52</v>
       </c>
       <c r="D177" s="3" t="str">
@@ -10752,7 +10261,7 @@
       <c r="B178" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="C178" s="23">
+      <c r="C178" s="20">
         <v>53</v>
       </c>
       <c r="D178" s="3" t="str">
@@ -10767,7 +10276,7 @@
       <c r="B179" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="C179" s="23">
+      <c r="C179" s="20">
         <v>53</v>
       </c>
       <c r="D179" s="3" t="str">
@@ -10782,7 +10291,7 @@
       <c r="B180" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="C180" s="23">
+      <c r="C180" s="20">
         <v>53</v>
       </c>
       <c r="D180" s="3" t="str">
@@ -10797,7 +10306,7 @@
       <c r="B181" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="C181" s="23">
+      <c r="C181" s="20">
         <v>53</v>
       </c>
       <c r="D181" s="3" t="str">
@@ -10812,7 +10321,7 @@
       <c r="B182" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="C182" s="23">
+      <c r="C182" s="20">
         <v>53</v>
       </c>
       <c r="D182" s="3" t="str">
@@ -10827,7 +10336,7 @@
       <c r="B183" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="C183" s="23">
+      <c r="C183" s="20">
         <v>53</v>
       </c>
       <c r="D183" s="3" t="str">
@@ -10842,7 +10351,7 @@
       <c r="B184" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="C184" s="23">
+      <c r="C184" s="20">
         <v>54</v>
       </c>
       <c r="D184" s="3" t="str">
@@ -10857,7 +10366,7 @@
       <c r="B185" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="C185" s="23">
+      <c r="C185" s="20">
         <v>54</v>
       </c>
       <c r="D185" s="3" t="str">
@@ -10872,7 +10381,7 @@
       <c r="B186" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="C186" s="23">
+      <c r="C186" s="20">
         <v>54</v>
       </c>
       <c r="D186" s="3" t="str">
@@ -10887,7 +10396,7 @@
       <c r="B187" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="C187" s="23">
+      <c r="C187" s="20">
         <v>54</v>
       </c>
       <c r="D187" s="3" t="str">
@@ -10902,7 +10411,7 @@
       <c r="B188" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="C188" s="23">
+      <c r="C188" s="20">
         <v>41</v>
       </c>
       <c r="D188" s="3" t="str">
@@ -10910,87 +10419,7 @@
         <v>Политические науки и регионоведение</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D189" s="17"/>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D190" s="17"/>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D191" s="17"/>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D192" s="17"/>
-    </row>
-    <row r="193" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D193" s="17"/>
-    </row>
-    <row r="194" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D194" s="17"/>
-    </row>
-    <row r="195" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D195" s="17"/>
-    </row>
-    <row r="196" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D196" s="17"/>
-    </row>
-    <row r="197" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D197" s="17"/>
-    </row>
-    <row r="198" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D198" s="17"/>
-    </row>
-    <row r="199" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D199" s="17"/>
-    </row>
-    <row r="200" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D200" s="17"/>
-    </row>
-    <row r="201" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D201" s="17"/>
-    </row>
-    <row r="202" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D202" s="17"/>
-    </row>
-    <row r="203" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D203" s="17"/>
-    </row>
-    <row r="204" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D204" s="17"/>
-    </row>
-    <row r="205" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D205" s="17"/>
-    </row>
-    <row r="206" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D206" s="17"/>
-    </row>
-    <row r="207" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D207" s="17"/>
-    </row>
-    <row r="208" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D208" s="17"/>
-    </row>
-    <row r="209" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D209" s="17"/>
-    </row>
-    <row r="210" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D210" s="17"/>
-    </row>
-    <row r="211" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D211" s="17"/>
-    </row>
-    <row r="212" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D212" s="17"/>
-    </row>
-    <row r="213" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D213" s="17"/>
-    </row>
   </sheetData>
-  <autoFilter ref="C1:D188" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:D56">
-      <sortCondition ref="C1"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -11003,19 +10432,19 @@
   </sheetPr>
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="68" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" style="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="67.85546875" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.42578125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="24" t="s">
         <v>69</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -11026,7 +10455,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="29">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -11037,7 +10466,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29">
+      <c r="A3" s="25">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -11048,7 +10477,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="29">
+      <c r="A4" s="25">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -11059,7 +10488,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="29">
+      <c r="A5" s="25">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -11070,7 +10499,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="29">
+      <c r="A6" s="25">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -11081,7 +10510,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="29">
+      <c r="A7" s="25">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -11092,7 +10521,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="29">
+      <c r="A8" s="25">
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -11103,7 +10532,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="29">
+      <c r="A9" s="25">
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -11114,7 +10543,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="29">
+      <c r="A10" s="25">
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -11125,7 +10554,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="29">
+      <c r="A11" s="25">
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -11136,7 +10565,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="29">
+      <c r="A12" s="25">
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -11147,7 +10576,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="29">
+      <c r="A13" s="25">
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -11158,7 +10587,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="29">
+      <c r="A14" s="25">
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -11169,7 +10598,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="29">
+      <c r="A15" s="25">
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -11180,7 +10609,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="29">
+      <c r="A16" s="25">
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -11191,7 +10620,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="29">
+      <c r="A17" s="25">
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -11202,7 +10631,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="29">
+      <c r="A18" s="25">
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
@@ -11213,7 +10642,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="29">
+      <c r="A19" s="25">
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
@@ -11224,7 +10653,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="29">
+      <c r="A20" s="25">
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -11235,7 +10664,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="29">
+      <c r="A21" s="25">
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -11246,7 +10675,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="29">
+      <c r="A22" s="25">
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -11257,7 +10686,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="29">
+      <c r="A23" s="25">
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
@@ -11268,7 +10697,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="29">
+      <c r="A24" s="25">
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -11279,7 +10708,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="29">
+      <c r="A25" s="25">
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
@@ -11290,7 +10719,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="29">
+      <c r="A26" s="25">
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
@@ -11301,7 +10730,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="29">
+      <c r="A27" s="25">
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
@@ -11312,7 +10741,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="29">
+      <c r="A28" s="25">
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
@@ -11323,7 +10752,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="29">
+      <c r="A29" s="25">
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
@@ -11334,7 +10763,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="29">
+      <c r="A30" s="25">
         <v>29</v>
       </c>
       <c r="B30" s="9" t="s">
@@ -11345,7 +10774,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="29">
+      <c r="A31" s="25">
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
@@ -11356,7 +10785,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="29">
+      <c r="A32" s="25">
         <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
@@ -11367,7 +10796,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="29">
+      <c r="A33" s="25">
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
@@ -11378,7 +10807,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="29">
+      <c r="A34" s="25">
         <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
@@ -11389,7 +10818,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="29">
+      <c r="A35" s="25">
         <v>34</v>
       </c>
       <c r="B35" s="9" t="s">
@@ -11400,7 +10829,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="29">
+      <c r="A36" s="25">
         <v>35</v>
       </c>
       <c r="B36" s="9" t="s">
@@ -11411,7 +10840,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="29">
+      <c r="A37" s="25">
         <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
@@ -11422,7 +10851,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="29">
+      <c r="A38" s="25">
         <v>37</v>
       </c>
       <c r="B38" s="9" t="s">
@@ -11433,7 +10862,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="29">
+      <c r="A39" s="25">
         <v>38</v>
       </c>
       <c r="B39" s="9" t="s">
@@ -11444,7 +10873,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="29">
+      <c r="A40" s="25">
         <v>39</v>
       </c>
       <c r="B40" s="9" t="s">
@@ -11455,7 +10884,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="29">
+      <c r="A41" s="25">
         <v>40</v>
       </c>
       <c r="B41" s="9" t="s">
@@ -11466,7 +10895,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="29">
+      <c r="A42" s="25">
         <v>41</v>
       </c>
       <c r="B42" s="9" t="s">
@@ -11477,7 +10906,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="29">
+      <c r="A43" s="25">
         <v>42</v>
       </c>
       <c r="B43" s="9" t="s">
@@ -11488,7 +10917,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="29">
+      <c r="A44" s="25">
         <v>43</v>
       </c>
       <c r="B44" s="9" t="s">
@@ -11499,7 +10928,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="29">
+      <c r="A45" s="25">
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
@@ -11510,7 +10939,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="29">
+      <c r="A46" s="25">
         <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
@@ -11521,7 +10950,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="29">
+      <c r="A47" s="25">
         <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
@@ -11532,7 +10961,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="29">
+      <c r="A48" s="25">
         <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
@@ -11543,7 +10972,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="29">
+      <c r="A49" s="25">
         <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
@@ -11554,7 +10983,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="29">
+      <c r="A50" s="25">
         <v>49</v>
       </c>
       <c r="B50" s="9" t="s">
@@ -11565,7 +10994,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="29">
+      <c r="A51" s="25">
         <v>50</v>
       </c>
       <c r="B51" s="9" t="s">
@@ -11576,7 +11005,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="29">
+      <c r="A52" s="25">
         <v>51</v>
       </c>
       <c r="B52" s="9" t="s">
@@ -11587,7 +11016,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="29">
+      <c r="A53" s="25">
         <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
@@ -11598,7 +11027,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="29">
+      <c r="A54" s="25">
         <v>53</v>
       </c>
       <c r="B54" s="9" t="s">
@@ -11609,7 +11038,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="29">
+      <c r="A55" s="25">
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
@@ -11620,7 +11049,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="29">
+      <c r="A56" s="25">
         <v>55</v>
       </c>
       <c r="B56" s="9" t="s">
@@ -11631,7 +11060,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="29">
+      <c r="A57" s="25">
         <v>56</v>
       </c>
       <c r="B57" s="9" t="s">
@@ -11642,7 +11071,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="29">
+      <c r="A58" s="25">
         <v>57</v>
       </c>
       <c r="B58" s="9" t="s">
@@ -11653,11 +11082,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C58" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C56">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
